--- a/me-docs/infra/9.vpc-mysql/3.mysql-replication-master-slave.xlsx
+++ b/me-docs/infra/9.vpc-mysql/3.mysql-replication-master-slave.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\infra\9.vpc-mysql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC504E8-DCD0-46D6-B0A9-3C3CFFA6CF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E326388-EC8F-44AF-9109-14D212865A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EC2(db-slave)" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="251">
   <si>
     <t>1. Tạo EC2 Instance</t>
   </si>
@@ -559,9 +559,6 @@
     <t>Step 1: Configure the Master Server</t>
   </si>
   <si>
-    <t>cp /etc/my.cnf /etc/my.cnf_bkp_20200610</t>
-  </si>
-  <si>
     <t>SELECT * FROM performance_schema.global_variables WHERE VARIABLE_NAME IN ('log_bin','log_bin_basename','log_bin_index','log_slave_updates', 'server_id');</t>
   </si>
   <si>
@@ -590,9 +587,6 @@
   </si>
   <si>
     <t>check connect mysql db server from db_slave: mysql -u quang -h 172.27.17.32 -p</t>
-  </si>
-  <si>
-    <t>Step 2 : [root@linux3 ~]#CONFIGURE THE SLAVE SERVER</t>
   </si>
   <si>
     <t>cp /etc/my.cnf /etc/my.cnf_orig</t>
@@ -894,12 +888,73 @@
   <si>
     <t>Check db(slave) database is also created</t>
   </si>
+  <si>
+    <t>Step 2 : [root@db_slave ~]#CONFIGURE THE SLAVE SERVER</t>
+  </si>
+  <si>
+    <t>■Inbound rules</t>
+  </si>
+  <si>
+    <t>protocol</t>
+  </si>
+  <si>
+    <t>Port range</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>MYSQL/Aurora</t>
+  </si>
+  <si>
+    <t>TCP</t>
+  </si>
+  <si>
+    <t>news</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>SSH</t>
+  </si>
+  <si>
+    <t>Custom TCP</t>
+  </si>
+  <si>
+    <t>Custom ICMP - IPv4</t>
+  </si>
+  <si>
+    <t>Echo Request</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>■Outbound rules</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>All traffic</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>0.0.0.0/0</t>
+  </si>
+  <si>
+    <t>3. db(Security group)</t>
+  </si>
+  <si>
+    <t>cp /etc/my.cnf /etc/my.cnf_bkp_20200612</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -963,8 +1018,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -989,8 +1049,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1336,13 +1402,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1369,36 +1461,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1445,6 +1513,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -4531,13 +4637,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>66042</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123192</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>28452</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4575,13 +4681,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>198918</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>256068</xdr:colOff>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>66214</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4619,13 +4725,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>200026</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>38131</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4663,13 +4769,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>256670</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>313820</xdr:colOff>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>94881</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4707,13 +4813,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>219076</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>217</xdr:row>
       <xdr:rowOff>69429</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4751,13 +4857,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>192</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>215</xdr:row>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>242</xdr:row>
       <xdr:rowOff>66451</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4795,13 +4901,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>218</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>75261</xdr:colOff>
-      <xdr:row>235</xdr:row>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>132411</xdr:colOff>
+      <xdr:row>262</xdr:row>
       <xdr:rowOff>85309</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4839,13 +4945,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>239</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>466118</xdr:colOff>
-      <xdr:row>244</xdr:row>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1132868</xdr:colOff>
+      <xdr:row>271</xdr:row>
       <xdr:rowOff>47500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4883,13 +4989,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>265</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>227489</xdr:colOff>
-      <xdr:row>284</xdr:row>
+      <xdr:row>292</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>284639</xdr:colOff>
+      <xdr:row>311</xdr:row>
       <xdr:rowOff>66214</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4927,13 +5033,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>287</xdr:row>
+      <xdr:row>314</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>196588</xdr:colOff>
-      <xdr:row>314</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>253738</xdr:colOff>
+      <xdr:row>341</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4971,13 +5077,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>328</xdr:row>
+      <xdr:row>355</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>313370</xdr:colOff>
-      <xdr:row>345</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>370520</xdr:colOff>
+      <xdr:row>372</xdr:row>
       <xdr:rowOff>151983</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5015,13 +5121,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>348</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>370880</xdr:colOff>
-      <xdr:row>352</xdr:row>
+      <xdr:row>375</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1037630</xdr:colOff>
+      <xdr:row>379</xdr:row>
       <xdr:rowOff>38000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5059,13 +5165,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>374</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>484251</xdr:colOff>
-      <xdr:row>395</xdr:row>
+      <xdr:row>401</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>541401</xdr:colOff>
+      <xdr:row>422</xdr:row>
       <xdr:rowOff>189976</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5103,13 +5209,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>398</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>189927</xdr:colOff>
-      <xdr:row>405</xdr:row>
+      <xdr:row>425</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>856677</xdr:colOff>
+      <xdr:row>432</xdr:row>
       <xdr:rowOff>47452</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5147,13 +5253,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>445</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>341851</xdr:colOff>
-      <xdr:row>478</xdr:row>
+      <xdr:row>472</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>399001</xdr:colOff>
+      <xdr:row>505</xdr:row>
       <xdr:rowOff>113500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5191,13 +5297,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>389699</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>446849</xdr:colOff>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>37357</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5235,13 +5341,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>304365</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>828240</xdr:colOff>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>133048</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5279,13 +5385,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>94308</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>151458</xdr:colOff>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>189881</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5323,13 +5429,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>251</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>399604</xdr:colOff>
-      <xdr:row>262</xdr:row>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>923479</xdr:colOff>
+      <xdr:row>289</xdr:row>
       <xdr:rowOff>37833</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5367,13 +5473,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>359</xdr:row>
+      <xdr:row>386</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>485179</xdr:colOff>
-      <xdr:row>371</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1151929</xdr:colOff>
+      <xdr:row>398</xdr:row>
       <xdr:rowOff>47352</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5411,13 +5517,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>408</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>608823</xdr:colOff>
-      <xdr:row>443</xdr:row>
+      <xdr:row>435</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>56373</xdr:colOff>
+      <xdr:row>470</xdr:row>
       <xdr:rowOff>180119</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5455,13 +5561,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>482</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>399299</xdr:colOff>
-      <xdr:row>491</xdr:row>
+      <xdr:row>509</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>456449</xdr:colOff>
+      <xdr:row>518</xdr:row>
       <xdr:rowOff>95024</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7137,8 +7243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB014F16-C01F-4599-8266-C04A6DEE3D7D}">
   <dimension ref="A2:E380"/>
   <sheetViews>
-    <sheetView topLeftCell="A347" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B378" sqref="B378"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7213,35 +7319,35 @@
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="54"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="24" t="s">
         <v>48</v>
       </c>
     </row>
@@ -7250,9 +7356,9 @@
       <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
@@ -7298,11 +7404,11 @@
       <c r="B16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="54"/>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
@@ -7525,14 +7631,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085D1C04-7B9C-4B77-A720-DE63F75DDB02}">
   <dimension ref="A2:M540"/>
   <sheetViews>
-    <sheetView topLeftCell="A475" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A475" sqref="A475:M540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="25" t="s">
         <v>58</v>
       </c>
     </row>
@@ -7717,1601 +7823,1601 @@
       </c>
     </row>
     <row r="436" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A436" s="34" t="s">
+      <c r="A436" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="B436" s="34"/>
-      <c r="C436" s="34"/>
-      <c r="D436" s="34"/>
-      <c r="E436" s="34"/>
-      <c r="F436" s="34"/>
-      <c r="G436" s="34"/>
-      <c r="H436" s="34"/>
-      <c r="I436" s="34"/>
-      <c r="J436" s="34"/>
-      <c r="K436" s="34"/>
-      <c r="L436" s="34"/>
-      <c r="M436" s="34"/>
+      <c r="B436" s="26"/>
+      <c r="C436" s="26"/>
+      <c r="D436" s="26"/>
+      <c r="E436" s="26"/>
+      <c r="F436" s="26"/>
+      <c r="G436" s="26"/>
+      <c r="H436" s="26"/>
+      <c r="I436" s="26"/>
+      <c r="J436" s="26"/>
+      <c r="K436" s="26"/>
+      <c r="L436" s="26"/>
+      <c r="M436" s="26"/>
     </row>
     <row r="437" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A437" s="34"/>
-      <c r="B437" s="34" t="s">
+      <c r="A437" s="26"/>
+      <c r="B437" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="C437" s="34"/>
-      <c r="D437" s="34"/>
-      <c r="E437" s="34"/>
-      <c r="F437" s="34"/>
-      <c r="G437" s="34"/>
-      <c r="H437" s="34"/>
-      <c r="I437" s="34"/>
-      <c r="J437" s="34"/>
-      <c r="K437" s="34"/>
-      <c r="L437" s="34"/>
-      <c r="M437" s="34"/>
+      <c r="C437" s="26"/>
+      <c r="D437" s="26"/>
+      <c r="E437" s="26"/>
+      <c r="F437" s="26"/>
+      <c r="G437" s="26"/>
+      <c r="H437" s="26"/>
+      <c r="I437" s="26"/>
+      <c r="J437" s="26"/>
+      <c r="K437" s="26"/>
+      <c r="L437" s="26"/>
+      <c r="M437" s="26"/>
     </row>
     <row r="438" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A438" s="34"/>
-      <c r="B438" s="34"/>
-      <c r="C438" s="34"/>
-      <c r="D438" s="34"/>
-      <c r="E438" s="34"/>
-      <c r="F438" s="34"/>
-      <c r="G438" s="34"/>
-      <c r="H438" s="34"/>
-      <c r="I438" s="34"/>
-      <c r="J438" s="34"/>
-      <c r="K438" s="34"/>
-      <c r="L438" s="34"/>
-      <c r="M438" s="34"/>
+      <c r="A438" s="26"/>
+      <c r="B438" s="26"/>
+      <c r="C438" s="26"/>
+      <c r="D438" s="26"/>
+      <c r="E438" s="26"/>
+      <c r="F438" s="26"/>
+      <c r="G438" s="26"/>
+      <c r="H438" s="26"/>
+      <c r="I438" s="26"/>
+      <c r="J438" s="26"/>
+      <c r="K438" s="26"/>
+      <c r="L438" s="26"/>
+      <c r="M438" s="26"/>
     </row>
     <row r="439" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A439" s="34"/>
-      <c r="B439" s="34"/>
-      <c r="C439" s="34"/>
-      <c r="D439" s="34"/>
-      <c r="E439" s="34"/>
-      <c r="F439" s="34"/>
-      <c r="G439" s="34"/>
-      <c r="H439" s="34"/>
-      <c r="I439" s="34"/>
-      <c r="J439" s="34"/>
-      <c r="K439" s="34"/>
-      <c r="L439" s="34"/>
-      <c r="M439" s="34"/>
+      <c r="A439" s="26"/>
+      <c r="B439" s="26"/>
+      <c r="C439" s="26"/>
+      <c r="D439" s="26"/>
+      <c r="E439" s="26"/>
+      <c r="F439" s="26"/>
+      <c r="G439" s="26"/>
+      <c r="H439" s="26"/>
+      <c r="I439" s="26"/>
+      <c r="J439" s="26"/>
+      <c r="K439" s="26"/>
+      <c r="L439" s="26"/>
+      <c r="M439" s="26"/>
     </row>
     <row r="440" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A440" s="34"/>
-      <c r="B440" s="34"/>
-      <c r="C440" s="34"/>
-      <c r="D440" s="34"/>
-      <c r="E440" s="34"/>
-      <c r="F440" s="34"/>
-      <c r="G440" s="34"/>
-      <c r="H440" s="34"/>
-      <c r="I440" s="34"/>
-      <c r="J440" s="34"/>
-      <c r="K440" s="34"/>
-      <c r="L440" s="34"/>
-      <c r="M440" s="34"/>
+      <c r="A440" s="26"/>
+      <c r="B440" s="26"/>
+      <c r="C440" s="26"/>
+      <c r="D440" s="26"/>
+      <c r="E440" s="26"/>
+      <c r="F440" s="26"/>
+      <c r="G440" s="26"/>
+      <c r="H440" s="26"/>
+      <c r="I440" s="26"/>
+      <c r="J440" s="26"/>
+      <c r="K440" s="26"/>
+      <c r="L440" s="26"/>
+      <c r="M440" s="26"/>
     </row>
     <row r="441" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A441" s="34"/>
-      <c r="B441" s="34"/>
-      <c r="C441" s="34"/>
-      <c r="D441" s="34"/>
-      <c r="E441" s="34"/>
-      <c r="F441" s="34"/>
-      <c r="G441" s="34"/>
-      <c r="H441" s="34"/>
-      <c r="I441" s="34"/>
-      <c r="J441" s="34"/>
-      <c r="K441" s="34"/>
-      <c r="L441" s="34"/>
-      <c r="M441" s="34"/>
+      <c r="A441" s="26"/>
+      <c r="B441" s="26"/>
+      <c r="C441" s="26"/>
+      <c r="D441" s="26"/>
+      <c r="E441" s="26"/>
+      <c r="F441" s="26"/>
+      <c r="G441" s="26"/>
+      <c r="H441" s="26"/>
+      <c r="I441" s="26"/>
+      <c r="J441" s="26"/>
+      <c r="K441" s="26"/>
+      <c r="L441" s="26"/>
+      <c r="M441" s="26"/>
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A442" s="34"/>
-      <c r="B442" s="34"/>
-      <c r="C442" s="34"/>
-      <c r="D442" s="34"/>
-      <c r="E442" s="34"/>
-      <c r="F442" s="34"/>
-      <c r="G442" s="34"/>
-      <c r="H442" s="34"/>
-      <c r="I442" s="34"/>
-      <c r="J442" s="34"/>
-      <c r="K442" s="34"/>
-      <c r="L442" s="34"/>
-      <c r="M442" s="34"/>
+      <c r="A442" s="26"/>
+      <c r="B442" s="26"/>
+      <c r="C442" s="26"/>
+      <c r="D442" s="26"/>
+      <c r="E442" s="26"/>
+      <c r="F442" s="26"/>
+      <c r="G442" s="26"/>
+      <c r="H442" s="26"/>
+      <c r="I442" s="26"/>
+      <c r="J442" s="26"/>
+      <c r="K442" s="26"/>
+      <c r="L442" s="26"/>
+      <c r="M442" s="26"/>
     </row>
     <row r="443" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A443" s="34"/>
-      <c r="B443" s="34"/>
-      <c r="C443" s="34"/>
-      <c r="D443" s="34"/>
-      <c r="E443" s="34"/>
-      <c r="F443" s="34"/>
-      <c r="G443" s="34"/>
-      <c r="H443" s="34"/>
-      <c r="I443" s="34"/>
-      <c r="J443" s="34"/>
-      <c r="K443" s="34"/>
-      <c r="L443" s="34"/>
-      <c r="M443" s="34"/>
+      <c r="A443" s="26"/>
+      <c r="B443" s="26"/>
+      <c r="C443" s="26"/>
+      <c r="D443" s="26"/>
+      <c r="E443" s="26"/>
+      <c r="F443" s="26"/>
+      <c r="G443" s="26"/>
+      <c r="H443" s="26"/>
+      <c r="I443" s="26"/>
+      <c r="J443" s="26"/>
+      <c r="K443" s="26"/>
+      <c r="L443" s="26"/>
+      <c r="M443" s="26"/>
     </row>
     <row r="444" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A444" s="34"/>
-      <c r="B444" s="34"/>
-      <c r="C444" s="34"/>
-      <c r="D444" s="34"/>
-      <c r="E444" s="34"/>
-      <c r="F444" s="34"/>
-      <c r="G444" s="34"/>
-      <c r="H444" s="34"/>
-      <c r="I444" s="34"/>
-      <c r="J444" s="34"/>
-      <c r="K444" s="34"/>
-      <c r="L444" s="34"/>
-      <c r="M444" s="34"/>
+      <c r="A444" s="26"/>
+      <c r="B444" s="26"/>
+      <c r="C444" s="26"/>
+      <c r="D444" s="26"/>
+      <c r="E444" s="26"/>
+      <c r="F444" s="26"/>
+      <c r="G444" s="26"/>
+      <c r="H444" s="26"/>
+      <c r="I444" s="26"/>
+      <c r="J444" s="26"/>
+      <c r="K444" s="26"/>
+      <c r="L444" s="26"/>
+      <c r="M444" s="26"/>
     </row>
     <row r="445" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A445" s="34"/>
-      <c r="B445" s="34"/>
-      <c r="C445" s="34"/>
-      <c r="D445" s="34"/>
-      <c r="E445" s="34"/>
-      <c r="F445" s="34"/>
-      <c r="G445" s="34"/>
-      <c r="H445" s="34"/>
-      <c r="I445" s="34"/>
-      <c r="J445" s="34"/>
-      <c r="K445" s="34"/>
-      <c r="L445" s="34"/>
-      <c r="M445" s="34"/>
+      <c r="A445" s="26"/>
+      <c r="B445" s="26"/>
+      <c r="C445" s="26"/>
+      <c r="D445" s="26"/>
+      <c r="E445" s="26"/>
+      <c r="F445" s="26"/>
+      <c r="G445" s="26"/>
+      <c r="H445" s="26"/>
+      <c r="I445" s="26"/>
+      <c r="J445" s="26"/>
+      <c r="K445" s="26"/>
+      <c r="L445" s="26"/>
+      <c r="M445" s="26"/>
     </row>
     <row r="446" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A446" s="34"/>
-      <c r="B446" s="34"/>
-      <c r="C446" s="34"/>
-      <c r="D446" s="34"/>
-      <c r="E446" s="34"/>
-      <c r="F446" s="34"/>
-      <c r="G446" s="34"/>
-      <c r="H446" s="34"/>
-      <c r="I446" s="34"/>
-      <c r="J446" s="34"/>
-      <c r="K446" s="34"/>
-      <c r="L446" s="34"/>
-      <c r="M446" s="34"/>
+      <c r="A446" s="26"/>
+      <c r="B446" s="26"/>
+      <c r="C446" s="26"/>
+      <c r="D446" s="26"/>
+      <c r="E446" s="26"/>
+      <c r="F446" s="26"/>
+      <c r="G446" s="26"/>
+      <c r="H446" s="26"/>
+      <c r="I446" s="26"/>
+      <c r="J446" s="26"/>
+      <c r="K446" s="26"/>
+      <c r="L446" s="26"/>
+      <c r="M446" s="26"/>
     </row>
     <row r="447" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A447" s="34"/>
-      <c r="B447" s="34"/>
-      <c r="C447" s="34"/>
-      <c r="D447" s="34"/>
-      <c r="E447" s="34"/>
-      <c r="F447" s="34"/>
-      <c r="G447" s="34"/>
-      <c r="H447" s="34"/>
-      <c r="I447" s="34"/>
-      <c r="J447" s="34"/>
-      <c r="K447" s="34"/>
-      <c r="L447" s="34"/>
-      <c r="M447" s="34"/>
+      <c r="A447" s="26"/>
+      <c r="B447" s="26"/>
+      <c r="C447" s="26"/>
+      <c r="D447" s="26"/>
+      <c r="E447" s="26"/>
+      <c r="F447" s="26"/>
+      <c r="G447" s="26"/>
+      <c r="H447" s="26"/>
+      <c r="I447" s="26"/>
+      <c r="J447" s="26"/>
+      <c r="K447" s="26"/>
+      <c r="L447" s="26"/>
+      <c r="M447" s="26"/>
     </row>
     <row r="448" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A448" s="34"/>
-      <c r="B448" s="34"/>
-      <c r="C448" s="34"/>
-      <c r="D448" s="34"/>
-      <c r="E448" s="34"/>
-      <c r="F448" s="34"/>
-      <c r="G448" s="34"/>
-      <c r="H448" s="34"/>
-      <c r="I448" s="34"/>
-      <c r="J448" s="34"/>
-      <c r="K448" s="34"/>
-      <c r="L448" s="34"/>
-      <c r="M448" s="34"/>
+      <c r="A448" s="26"/>
+      <c r="B448" s="26"/>
+      <c r="C448" s="26"/>
+      <c r="D448" s="26"/>
+      <c r="E448" s="26"/>
+      <c r="F448" s="26"/>
+      <c r="G448" s="26"/>
+      <c r="H448" s="26"/>
+      <c r="I448" s="26"/>
+      <c r="J448" s="26"/>
+      <c r="K448" s="26"/>
+      <c r="L448" s="26"/>
+      <c r="M448" s="26"/>
     </row>
     <row r="449" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A449" s="34"/>
-      <c r="B449" s="34"/>
-      <c r="C449" s="34"/>
-      <c r="D449" s="34"/>
-      <c r="E449" s="34"/>
-      <c r="F449" s="34"/>
-      <c r="G449" s="34"/>
-      <c r="H449" s="34"/>
-      <c r="I449" s="34"/>
-      <c r="J449" s="34"/>
-      <c r="K449" s="34"/>
-      <c r="L449" s="34"/>
-      <c r="M449" s="34"/>
+      <c r="A449" s="26"/>
+      <c r="B449" s="26"/>
+      <c r="C449" s="26"/>
+      <c r="D449" s="26"/>
+      <c r="E449" s="26"/>
+      <c r="F449" s="26"/>
+      <c r="G449" s="26"/>
+      <c r="H449" s="26"/>
+      <c r="I449" s="26"/>
+      <c r="J449" s="26"/>
+      <c r="K449" s="26"/>
+      <c r="L449" s="26"/>
+      <c r="M449" s="26"/>
     </row>
     <row r="450" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A450" s="34"/>
-      <c r="B450" s="34"/>
-      <c r="C450" s="34"/>
-      <c r="D450" s="34"/>
-      <c r="E450" s="34"/>
-      <c r="F450" s="34"/>
-      <c r="G450" s="34"/>
-      <c r="H450" s="34"/>
-      <c r="I450" s="34"/>
-      <c r="J450" s="34"/>
-      <c r="K450" s="34"/>
-      <c r="L450" s="34"/>
-      <c r="M450" s="34"/>
+      <c r="A450" s="26"/>
+      <c r="B450" s="26"/>
+      <c r="C450" s="26"/>
+      <c r="D450" s="26"/>
+      <c r="E450" s="26"/>
+      <c r="F450" s="26"/>
+      <c r="G450" s="26"/>
+      <c r="H450" s="26"/>
+      <c r="I450" s="26"/>
+      <c r="J450" s="26"/>
+      <c r="K450" s="26"/>
+      <c r="L450" s="26"/>
+      <c r="M450" s="26"/>
     </row>
     <row r="451" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A451" s="34"/>
-      <c r="B451" s="34"/>
-      <c r="C451" s="34"/>
-      <c r="D451" s="34"/>
-      <c r="E451" s="34"/>
-      <c r="F451" s="34"/>
-      <c r="G451" s="34"/>
-      <c r="H451" s="34"/>
-      <c r="I451" s="34"/>
-      <c r="J451" s="34"/>
-      <c r="K451" s="34"/>
-      <c r="L451" s="34"/>
-      <c r="M451" s="34"/>
+      <c r="A451" s="26"/>
+      <c r="B451" s="26"/>
+      <c r="C451" s="26"/>
+      <c r="D451" s="26"/>
+      <c r="E451" s="26"/>
+      <c r="F451" s="26"/>
+      <c r="G451" s="26"/>
+      <c r="H451" s="26"/>
+      <c r="I451" s="26"/>
+      <c r="J451" s="26"/>
+      <c r="K451" s="26"/>
+      <c r="L451" s="26"/>
+      <c r="M451" s="26"/>
     </row>
     <row r="452" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A452" s="34"/>
-      <c r="B452" s="34"/>
-      <c r="C452" s="34"/>
-      <c r="D452" s="34"/>
-      <c r="E452" s="34"/>
-      <c r="F452" s="34"/>
-      <c r="G452" s="34"/>
-      <c r="H452" s="34"/>
-      <c r="I452" s="34"/>
-      <c r="J452" s="34"/>
-      <c r="K452" s="34"/>
-      <c r="L452" s="34"/>
-      <c r="M452" s="34"/>
+      <c r="A452" s="26"/>
+      <c r="B452" s="26"/>
+      <c r="C452" s="26"/>
+      <c r="D452" s="26"/>
+      <c r="E452" s="26"/>
+      <c r="F452" s="26"/>
+      <c r="G452" s="26"/>
+      <c r="H452" s="26"/>
+      <c r="I452" s="26"/>
+      <c r="J452" s="26"/>
+      <c r="K452" s="26"/>
+      <c r="L452" s="26"/>
+      <c r="M452" s="26"/>
     </row>
     <row r="453" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A453" s="34"/>
-      <c r="B453" s="34"/>
-      <c r="C453" s="34"/>
-      <c r="D453" s="34"/>
-      <c r="E453" s="34"/>
-      <c r="F453" s="34"/>
-      <c r="G453" s="34"/>
-      <c r="H453" s="34"/>
-      <c r="I453" s="34"/>
-      <c r="J453" s="34"/>
-      <c r="K453" s="34"/>
-      <c r="L453" s="34"/>
-      <c r="M453" s="34"/>
+      <c r="A453" s="26"/>
+      <c r="B453" s="26"/>
+      <c r="C453" s="26"/>
+      <c r="D453" s="26"/>
+      <c r="E453" s="26"/>
+      <c r="F453" s="26"/>
+      <c r="G453" s="26"/>
+      <c r="H453" s="26"/>
+      <c r="I453" s="26"/>
+      <c r="J453" s="26"/>
+      <c r="K453" s="26"/>
+      <c r="L453" s="26"/>
+      <c r="M453" s="26"/>
     </row>
     <row r="454" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A454" s="34"/>
-      <c r="B454" s="34" t="s">
+      <c r="A454" s="26"/>
+      <c r="B454" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="C454" s="34"/>
-      <c r="D454" s="34"/>
-      <c r="E454" s="34"/>
-      <c r="F454" s="34"/>
-      <c r="G454" s="34"/>
-      <c r="H454" s="34"/>
-      <c r="I454" s="34"/>
-      <c r="J454" s="34"/>
-      <c r="K454" s="34"/>
-      <c r="L454" s="34"/>
-      <c r="M454" s="34"/>
+      <c r="C454" s="26"/>
+      <c r="D454" s="26"/>
+      <c r="E454" s="26"/>
+      <c r="F454" s="26"/>
+      <c r="G454" s="26"/>
+      <c r="H454" s="26"/>
+      <c r="I454" s="26"/>
+      <c r="J454" s="26"/>
+      <c r="K454" s="26"/>
+      <c r="L454" s="26"/>
+      <c r="M454" s="26"/>
     </row>
     <row r="455" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A455" s="34"/>
-      <c r="B455" s="34"/>
-      <c r="C455" s="34"/>
-      <c r="D455" s="34"/>
-      <c r="E455" s="34"/>
-      <c r="F455" s="34"/>
-      <c r="G455" s="34"/>
-      <c r="H455" s="34"/>
-      <c r="I455" s="34"/>
-      <c r="J455" s="34"/>
-      <c r="K455" s="34"/>
-      <c r="L455" s="34"/>
-      <c r="M455" s="34"/>
+      <c r="A455" s="26"/>
+      <c r="B455" s="26"/>
+      <c r="C455" s="26"/>
+      <c r="D455" s="26"/>
+      <c r="E455" s="26"/>
+      <c r="F455" s="26"/>
+      <c r="G455" s="26"/>
+      <c r="H455" s="26"/>
+      <c r="I455" s="26"/>
+      <c r="J455" s="26"/>
+      <c r="K455" s="26"/>
+      <c r="L455" s="26"/>
+      <c r="M455" s="26"/>
     </row>
     <row r="456" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A456" s="34"/>
-      <c r="B456" s="34"/>
-      <c r="C456" s="34"/>
-      <c r="D456" s="34"/>
-      <c r="E456" s="34"/>
-      <c r="F456" s="34"/>
-      <c r="G456" s="34"/>
-      <c r="H456" s="34"/>
-      <c r="I456" s="34"/>
-      <c r="J456" s="34"/>
-      <c r="K456" s="34"/>
-      <c r="L456" s="34"/>
-      <c r="M456" s="34"/>
+      <c r="A456" s="26"/>
+      <c r="B456" s="26"/>
+      <c r="C456" s="26"/>
+      <c r="D456" s="26"/>
+      <c r="E456" s="26"/>
+      <c r="F456" s="26"/>
+      <c r="G456" s="26"/>
+      <c r="H456" s="26"/>
+      <c r="I456" s="26"/>
+      <c r="J456" s="26"/>
+      <c r="K456" s="26"/>
+      <c r="L456" s="26"/>
+      <c r="M456" s="26"/>
     </row>
     <row r="457" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A457" s="34"/>
-      <c r="B457" s="34"/>
-      <c r="C457" s="34"/>
-      <c r="D457" s="34"/>
-      <c r="E457" s="34"/>
-      <c r="F457" s="34"/>
-      <c r="G457" s="34"/>
-      <c r="H457" s="34"/>
-      <c r="I457" s="34"/>
-      <c r="J457" s="34"/>
-      <c r="K457" s="34"/>
-      <c r="L457" s="34"/>
-      <c r="M457" s="34"/>
+      <c r="A457" s="26"/>
+      <c r="B457" s="26"/>
+      <c r="C457" s="26"/>
+      <c r="D457" s="26"/>
+      <c r="E457" s="26"/>
+      <c r="F457" s="26"/>
+      <c r="G457" s="26"/>
+      <c r="H457" s="26"/>
+      <c r="I457" s="26"/>
+      <c r="J457" s="26"/>
+      <c r="K457" s="26"/>
+      <c r="L457" s="26"/>
+      <c r="M457" s="26"/>
     </row>
     <row r="458" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A458" s="34"/>
-      <c r="B458" s="34"/>
-      <c r="C458" s="34"/>
-      <c r="D458" s="34"/>
-      <c r="E458" s="34"/>
-      <c r="F458" s="34"/>
-      <c r="G458" s="34"/>
-      <c r="H458" s="34"/>
-      <c r="I458" s="34"/>
-      <c r="J458" s="34"/>
-      <c r="K458" s="34"/>
-      <c r="L458" s="34"/>
-      <c r="M458" s="34"/>
+      <c r="A458" s="26"/>
+      <c r="B458" s="26"/>
+      <c r="C458" s="26"/>
+      <c r="D458" s="26"/>
+      <c r="E458" s="26"/>
+      <c r="F458" s="26"/>
+      <c r="G458" s="26"/>
+      <c r="H458" s="26"/>
+      <c r="I458" s="26"/>
+      <c r="J458" s="26"/>
+      <c r="K458" s="26"/>
+      <c r="L458" s="26"/>
+      <c r="M458" s="26"/>
     </row>
     <row r="459" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A459" s="34"/>
-      <c r="B459" s="34"/>
-      <c r="C459" s="34"/>
-      <c r="D459" s="34"/>
-      <c r="E459" s="34"/>
-      <c r="F459" s="34"/>
-      <c r="G459" s="34"/>
-      <c r="H459" s="34"/>
-      <c r="I459" s="34"/>
-      <c r="J459" s="34"/>
-      <c r="K459" s="34"/>
-      <c r="L459" s="34"/>
-      <c r="M459" s="34"/>
+      <c r="A459" s="26"/>
+      <c r="B459" s="26"/>
+      <c r="C459" s="26"/>
+      <c r="D459" s="26"/>
+      <c r="E459" s="26"/>
+      <c r="F459" s="26"/>
+      <c r="G459" s="26"/>
+      <c r="H459" s="26"/>
+      <c r="I459" s="26"/>
+      <c r="J459" s="26"/>
+      <c r="K459" s="26"/>
+      <c r="L459" s="26"/>
+      <c r="M459" s="26"/>
     </row>
     <row r="460" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A460" s="34"/>
-      <c r="B460" s="34"/>
-      <c r="C460" s="34"/>
-      <c r="D460" s="34"/>
-      <c r="E460" s="34"/>
-      <c r="F460" s="34"/>
-      <c r="G460" s="34"/>
-      <c r="H460" s="34"/>
-      <c r="I460" s="34"/>
-      <c r="J460" s="34"/>
-      <c r="K460" s="34"/>
-      <c r="L460" s="34"/>
-      <c r="M460" s="34"/>
+      <c r="A460" s="26"/>
+      <c r="B460" s="26"/>
+      <c r="C460" s="26"/>
+      <c r="D460" s="26"/>
+      <c r="E460" s="26"/>
+      <c r="F460" s="26"/>
+      <c r="G460" s="26"/>
+      <c r="H460" s="26"/>
+      <c r="I460" s="26"/>
+      <c r="J460" s="26"/>
+      <c r="K460" s="26"/>
+      <c r="L460" s="26"/>
+      <c r="M460" s="26"/>
     </row>
     <row r="461" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A461" s="34"/>
-      <c r="B461" s="34"/>
-      <c r="C461" s="34"/>
-      <c r="D461" s="34"/>
-      <c r="E461" s="34"/>
-      <c r="F461" s="34"/>
-      <c r="G461" s="34"/>
-      <c r="H461" s="34"/>
-      <c r="I461" s="34"/>
-      <c r="J461" s="34"/>
-      <c r="K461" s="34"/>
-      <c r="L461" s="34"/>
-      <c r="M461" s="34"/>
+      <c r="A461" s="26"/>
+      <c r="B461" s="26"/>
+      <c r="C461" s="26"/>
+      <c r="D461" s="26"/>
+      <c r="E461" s="26"/>
+      <c r="F461" s="26"/>
+      <c r="G461" s="26"/>
+      <c r="H461" s="26"/>
+      <c r="I461" s="26"/>
+      <c r="J461" s="26"/>
+      <c r="K461" s="26"/>
+      <c r="L461" s="26"/>
+      <c r="M461" s="26"/>
     </row>
     <row r="462" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A462" s="34"/>
-      <c r="B462" s="34"/>
-      <c r="C462" s="34"/>
-      <c r="D462" s="34"/>
-      <c r="E462" s="34"/>
-      <c r="F462" s="34"/>
-      <c r="G462" s="34"/>
-      <c r="H462" s="34"/>
-      <c r="I462" s="34"/>
-      <c r="J462" s="34"/>
-      <c r="K462" s="34"/>
-      <c r="L462" s="34"/>
-      <c r="M462" s="34"/>
+      <c r="A462" s="26"/>
+      <c r="B462" s="26"/>
+      <c r="C462" s="26"/>
+      <c r="D462" s="26"/>
+      <c r="E462" s="26"/>
+      <c r="F462" s="26"/>
+      <c r="G462" s="26"/>
+      <c r="H462" s="26"/>
+      <c r="I462" s="26"/>
+      <c r="J462" s="26"/>
+      <c r="K462" s="26"/>
+      <c r="L462" s="26"/>
+      <c r="M462" s="26"/>
     </row>
     <row r="463" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A463" s="34"/>
-      <c r="B463" s="34"/>
-      <c r="C463" s="34"/>
-      <c r="D463" s="34"/>
-      <c r="E463" s="34"/>
-      <c r="F463" s="34"/>
-      <c r="G463" s="34"/>
-      <c r="H463" s="34"/>
-      <c r="I463" s="34"/>
-      <c r="J463" s="34"/>
-      <c r="K463" s="34"/>
-      <c r="L463" s="34"/>
-      <c r="M463" s="34"/>
+      <c r="A463" s="26"/>
+      <c r="B463" s="26"/>
+      <c r="C463" s="26"/>
+      <c r="D463" s="26"/>
+      <c r="E463" s="26"/>
+      <c r="F463" s="26"/>
+      <c r="G463" s="26"/>
+      <c r="H463" s="26"/>
+      <c r="I463" s="26"/>
+      <c r="J463" s="26"/>
+      <c r="K463" s="26"/>
+      <c r="L463" s="26"/>
+      <c r="M463" s="26"/>
     </row>
     <row r="464" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A464" s="34"/>
-      <c r="B464" s="34"/>
-      <c r="C464" s="34"/>
-      <c r="D464" s="34"/>
-      <c r="E464" s="34"/>
-      <c r="F464" s="34"/>
-      <c r="G464" s="34"/>
-      <c r="H464" s="34"/>
-      <c r="I464" s="34"/>
-      <c r="J464" s="34"/>
-      <c r="K464" s="34"/>
-      <c r="L464" s="34"/>
-      <c r="M464" s="34"/>
+      <c r="A464" s="26"/>
+      <c r="B464" s="26"/>
+      <c r="C464" s="26"/>
+      <c r="D464" s="26"/>
+      <c r="E464" s="26"/>
+      <c r="F464" s="26"/>
+      <c r="G464" s="26"/>
+      <c r="H464" s="26"/>
+      <c r="I464" s="26"/>
+      <c r="J464" s="26"/>
+      <c r="K464" s="26"/>
+      <c r="L464" s="26"/>
+      <c r="M464" s="26"/>
     </row>
     <row r="465" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A465" s="34"/>
-      <c r="B465" s="34"/>
-      <c r="C465" s="34"/>
-      <c r="D465" s="34"/>
-      <c r="E465" s="34"/>
-      <c r="F465" s="34"/>
-      <c r="G465" s="34"/>
-      <c r="H465" s="34"/>
-      <c r="I465" s="34"/>
-      <c r="J465" s="34"/>
-      <c r="K465" s="34"/>
-      <c r="L465" s="34"/>
-      <c r="M465" s="34"/>
+      <c r="A465" s="26"/>
+      <c r="B465" s="26"/>
+      <c r="C465" s="26"/>
+      <c r="D465" s="26"/>
+      <c r="E465" s="26"/>
+      <c r="F465" s="26"/>
+      <c r="G465" s="26"/>
+      <c r="H465" s="26"/>
+      <c r="I465" s="26"/>
+      <c r="J465" s="26"/>
+      <c r="K465" s="26"/>
+      <c r="L465" s="26"/>
+      <c r="M465" s="26"/>
     </row>
     <row r="466" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A466" s="34"/>
-      <c r="B466" s="34"/>
-      <c r="C466" s="34"/>
-      <c r="D466" s="34"/>
-      <c r="E466" s="34"/>
-      <c r="F466" s="34"/>
-      <c r="G466" s="34"/>
-      <c r="H466" s="34"/>
-      <c r="I466" s="34"/>
-      <c r="J466" s="34"/>
-      <c r="K466" s="34"/>
-      <c r="L466" s="34"/>
-      <c r="M466" s="34"/>
+      <c r="A466" s="26"/>
+      <c r="B466" s="26"/>
+      <c r="C466" s="26"/>
+      <c r="D466" s="26"/>
+      <c r="E466" s="26"/>
+      <c r="F466" s="26"/>
+      <c r="G466" s="26"/>
+      <c r="H466" s="26"/>
+      <c r="I466" s="26"/>
+      <c r="J466" s="26"/>
+      <c r="K466" s="26"/>
+      <c r="L466" s="26"/>
+      <c r="M466" s="26"/>
     </row>
     <row r="467" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A467" s="34"/>
-      <c r="B467" s="34"/>
-      <c r="C467" s="34"/>
-      <c r="D467" s="34"/>
-      <c r="E467" s="34"/>
-      <c r="F467" s="34"/>
-      <c r="G467" s="34"/>
-      <c r="H467" s="34"/>
-      <c r="I467" s="34"/>
-      <c r="J467" s="34"/>
-      <c r="K467" s="34"/>
-      <c r="L467" s="34"/>
-      <c r="M467" s="34"/>
+      <c r="A467" s="26"/>
+      <c r="B467" s="26"/>
+      <c r="C467" s="26"/>
+      <c r="D467" s="26"/>
+      <c r="E467" s="26"/>
+      <c r="F467" s="26"/>
+      <c r="G467" s="26"/>
+      <c r="H467" s="26"/>
+      <c r="I467" s="26"/>
+      <c r="J467" s="26"/>
+      <c r="K467" s="26"/>
+      <c r="L467" s="26"/>
+      <c r="M467" s="26"/>
     </row>
     <row r="468" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A468" s="34"/>
-      <c r="B468" s="34"/>
-      <c r="C468" s="34"/>
-      <c r="D468" s="34"/>
-      <c r="E468" s="34"/>
-      <c r="F468" s="34"/>
-      <c r="G468" s="34"/>
-      <c r="H468" s="34"/>
-      <c r="I468" s="34"/>
-      <c r="J468" s="34"/>
-      <c r="K468" s="34"/>
-      <c r="L468" s="34"/>
-      <c r="M468" s="34"/>
+      <c r="A468" s="26"/>
+      <c r="B468" s="26"/>
+      <c r="C468" s="26"/>
+      <c r="D468" s="26"/>
+      <c r="E468" s="26"/>
+      <c r="F468" s="26"/>
+      <c r="G468" s="26"/>
+      <c r="H468" s="26"/>
+      <c r="I468" s="26"/>
+      <c r="J468" s="26"/>
+      <c r="K468" s="26"/>
+      <c r="L468" s="26"/>
+      <c r="M468" s="26"/>
     </row>
     <row r="469" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A469" s="34"/>
-      <c r="B469" s="34"/>
-      <c r="C469" s="34"/>
-      <c r="D469" s="34"/>
-      <c r="E469" s="34"/>
-      <c r="F469" s="34"/>
-      <c r="G469" s="34"/>
-      <c r="H469" s="34"/>
-      <c r="I469" s="34"/>
-      <c r="J469" s="34"/>
-      <c r="K469" s="34"/>
-      <c r="L469" s="34"/>
-      <c r="M469" s="34"/>
+      <c r="A469" s="26"/>
+      <c r="B469" s="26"/>
+      <c r="C469" s="26"/>
+      <c r="D469" s="26"/>
+      <c r="E469" s="26"/>
+      <c r="F469" s="26"/>
+      <c r="G469" s="26"/>
+      <c r="H469" s="26"/>
+      <c r="I469" s="26"/>
+      <c r="J469" s="26"/>
+      <c r="K469" s="26"/>
+      <c r="L469" s="26"/>
+      <c r="M469" s="26"/>
     </row>
     <row r="470" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A470" s="34"/>
-      <c r="B470" s="34"/>
-      <c r="C470" s="34"/>
-      <c r="D470" s="34"/>
-      <c r="E470" s="34"/>
-      <c r="F470" s="34"/>
-      <c r="G470" s="34"/>
-      <c r="H470" s="34"/>
-      <c r="I470" s="34"/>
-      <c r="J470" s="34"/>
-      <c r="K470" s="34"/>
-      <c r="L470" s="34"/>
-      <c r="M470" s="34"/>
+      <c r="A470" s="26"/>
+      <c r="B470" s="26"/>
+      <c r="C470" s="26"/>
+      <c r="D470" s="26"/>
+      <c r="E470" s="26"/>
+      <c r="F470" s="26"/>
+      <c r="G470" s="26"/>
+      <c r="H470" s="26"/>
+      <c r="I470" s="26"/>
+      <c r="J470" s="26"/>
+      <c r="K470" s="26"/>
+      <c r="L470" s="26"/>
+      <c r="M470" s="26"/>
     </row>
     <row r="471" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A471" s="34"/>
-      <c r="B471" s="34"/>
-      <c r="C471" s="34"/>
-      <c r="D471" s="34"/>
-      <c r="E471" s="34"/>
-      <c r="F471" s="34"/>
-      <c r="G471" s="34"/>
-      <c r="H471" s="34"/>
-      <c r="I471" s="34"/>
-      <c r="J471" s="34"/>
-      <c r="K471" s="34"/>
-      <c r="L471" s="34"/>
-      <c r="M471" s="34"/>
+      <c r="A471" s="26"/>
+      <c r="B471" s="26"/>
+      <c r="C471" s="26"/>
+      <c r="D471" s="26"/>
+      <c r="E471" s="26"/>
+      <c r="F471" s="26"/>
+      <c r="G471" s="26"/>
+      <c r="H471" s="26"/>
+      <c r="I471" s="26"/>
+      <c r="J471" s="26"/>
+      <c r="K471" s="26"/>
+      <c r="L471" s="26"/>
+      <c r="M471" s="26"/>
     </row>
     <row r="472" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A472" s="34"/>
-      <c r="B472" s="34"/>
-      <c r="C472" s="34"/>
-      <c r="D472" s="34"/>
-      <c r="E472" s="34"/>
-      <c r="F472" s="34"/>
-      <c r="G472" s="34"/>
-      <c r="H472" s="34"/>
-      <c r="I472" s="34"/>
-      <c r="J472" s="34"/>
-      <c r="K472" s="34"/>
-      <c r="L472" s="34"/>
-      <c r="M472" s="34"/>
+      <c r="A472" s="26"/>
+      <c r="B472" s="26"/>
+      <c r="C472" s="26"/>
+      <c r="D472" s="26"/>
+      <c r="E472" s="26"/>
+      <c r="F472" s="26"/>
+      <c r="G472" s="26"/>
+      <c r="H472" s="26"/>
+      <c r="I472" s="26"/>
+      <c r="J472" s="26"/>
+      <c r="K472" s="26"/>
+      <c r="L472" s="26"/>
+      <c r="M472" s="26"/>
     </row>
     <row r="473" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A473" s="34"/>
-      <c r="B473" s="34"/>
-      <c r="C473" s="34"/>
-      <c r="D473" s="34"/>
-      <c r="E473" s="34"/>
-      <c r="F473" s="34"/>
-      <c r="G473" s="34"/>
-      <c r="H473" s="34"/>
-      <c r="I473" s="34"/>
-      <c r="J473" s="34"/>
-      <c r="K473" s="34"/>
-      <c r="L473" s="34"/>
-      <c r="M473" s="34"/>
+      <c r="A473" s="26"/>
+      <c r="B473" s="26"/>
+      <c r="C473" s="26"/>
+      <c r="D473" s="26"/>
+      <c r="E473" s="26"/>
+      <c r="F473" s="26"/>
+      <c r="G473" s="26"/>
+      <c r="H473" s="26"/>
+      <c r="I473" s="26"/>
+      <c r="J473" s="26"/>
+      <c r="K473" s="26"/>
+      <c r="L473" s="26"/>
+      <c r="M473" s="26"/>
     </row>
     <row r="474" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A474" s="34"/>
-      <c r="B474" s="34"/>
-      <c r="C474" s="34"/>
-      <c r="D474" s="34"/>
-      <c r="E474" s="34"/>
-      <c r="F474" s="34"/>
-      <c r="G474" s="34"/>
-      <c r="H474" s="34"/>
-      <c r="I474" s="34"/>
-      <c r="J474" s="34"/>
-      <c r="K474" s="34"/>
-      <c r="L474" s="34"/>
-      <c r="M474" s="34"/>
+      <c r="A474" s="26"/>
+      <c r="B474" s="26"/>
+      <c r="C474" s="26"/>
+      <c r="D474" s="26"/>
+      <c r="E474" s="26"/>
+      <c r="F474" s="26"/>
+      <c r="G474" s="26"/>
+      <c r="H474" s="26"/>
+      <c r="I474" s="26"/>
+      <c r="J474" s="26"/>
+      <c r="K474" s="26"/>
+      <c r="L474" s="26"/>
+      <c r="M474" s="26"/>
     </row>
     <row r="475" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A475" s="34" t="s">
+      <c r="A475" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="B475" s="34"/>
-      <c r="C475" s="34"/>
-      <c r="D475" s="34"/>
-      <c r="E475" s="34"/>
-      <c r="F475" s="34"/>
-      <c r="G475" s="34"/>
-      <c r="H475" s="34"/>
-      <c r="I475" s="34"/>
-      <c r="J475" s="34"/>
-      <c r="K475" s="34"/>
-      <c r="L475" s="34"/>
-      <c r="M475" s="34"/>
+      <c r="B475" s="26"/>
+      <c r="C475" s="26"/>
+      <c r="D475" s="26"/>
+      <c r="E475" s="26"/>
+      <c r="F475" s="26"/>
+      <c r="G475" s="26"/>
+      <c r="H475" s="26"/>
+      <c r="I475" s="26"/>
+      <c r="J475" s="26"/>
+      <c r="K475" s="26"/>
+      <c r="L475" s="26"/>
+      <c r="M475" s="26"/>
     </row>
     <row r="476" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A476" s="34"/>
-      <c r="B476" s="35" t="s">
+      <c r="A476" s="26"/>
+      <c r="B476" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="C476" s="35"/>
-      <c r="D476" s="35"/>
-      <c r="E476" s="35"/>
-      <c r="F476" s="35"/>
-      <c r="G476" s="35"/>
-      <c r="H476" s="34"/>
-      <c r="I476" s="34"/>
-      <c r="J476" s="34"/>
-      <c r="K476" s="34"/>
-      <c r="L476" s="34"/>
-      <c r="M476" s="34"/>
+      <c r="C476" s="27"/>
+      <c r="D476" s="27"/>
+      <c r="E476" s="27"/>
+      <c r="F476" s="27"/>
+      <c r="G476" s="27"/>
+      <c r="H476" s="26"/>
+      <c r="I476" s="26"/>
+      <c r="J476" s="26"/>
+      <c r="K476" s="26"/>
+      <c r="L476" s="26"/>
+      <c r="M476" s="26"/>
     </row>
     <row r="477" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A477" s="34"/>
-      <c r="B477" s="34" t="s">
+      <c r="A477" s="26"/>
+      <c r="B477" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="C477" s="34"/>
-      <c r="D477" s="34"/>
-      <c r="E477" s="34"/>
-      <c r="F477" s="34"/>
-      <c r="G477" s="34"/>
-      <c r="H477" s="34"/>
-      <c r="I477" s="34"/>
-      <c r="J477" s="34"/>
-      <c r="K477" s="34"/>
-      <c r="L477" s="34"/>
-      <c r="M477" s="34"/>
+      <c r="C477" s="26"/>
+      <c r="D477" s="26"/>
+      <c r="E477" s="26"/>
+      <c r="F477" s="26"/>
+      <c r="G477" s="26"/>
+      <c r="H477" s="26"/>
+      <c r="I477" s="26"/>
+      <c r="J477" s="26"/>
+      <c r="K477" s="26"/>
+      <c r="L477" s="26"/>
+      <c r="M477" s="26"/>
     </row>
     <row r="478" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A478" s="34"/>
-      <c r="B478" s="34"/>
-      <c r="C478" s="34"/>
-      <c r="D478" s="34"/>
-      <c r="E478" s="34"/>
-      <c r="F478" s="34"/>
-      <c r="G478" s="34"/>
-      <c r="H478" s="34"/>
-      <c r="I478" s="34"/>
-      <c r="J478" s="34"/>
-      <c r="K478" s="34"/>
-      <c r="L478" s="34"/>
-      <c r="M478" s="34"/>
+      <c r="A478" s="26"/>
+      <c r="B478" s="26"/>
+      <c r="C478" s="26"/>
+      <c r="D478" s="26"/>
+      <c r="E478" s="26"/>
+      <c r="F478" s="26"/>
+      <c r="G478" s="26"/>
+      <c r="H478" s="26"/>
+      <c r="I478" s="26"/>
+      <c r="J478" s="26"/>
+      <c r="K478" s="26"/>
+      <c r="L478" s="26"/>
+      <c r="M478" s="26"/>
     </row>
     <row r="479" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A479" s="34"/>
-      <c r="B479" s="34"/>
-      <c r="C479" s="34"/>
-      <c r="D479" s="34"/>
-      <c r="E479" s="34"/>
-      <c r="F479" s="34"/>
-      <c r="G479" s="34"/>
-      <c r="H479" s="34"/>
-      <c r="I479" s="34"/>
-      <c r="J479" s="34"/>
-      <c r="K479" s="34"/>
-      <c r="L479" s="34"/>
-      <c r="M479" s="34"/>
+      <c r="A479" s="26"/>
+      <c r="B479" s="26"/>
+      <c r="C479" s="26"/>
+      <c r="D479" s="26"/>
+      <c r="E479" s="26"/>
+      <c r="F479" s="26"/>
+      <c r="G479" s="26"/>
+      <c r="H479" s="26"/>
+      <c r="I479" s="26"/>
+      <c r="J479" s="26"/>
+      <c r="K479" s="26"/>
+      <c r="L479" s="26"/>
+      <c r="M479" s="26"/>
     </row>
     <row r="480" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A480" s="34"/>
-      <c r="B480" s="34"/>
-      <c r="C480" s="34"/>
-      <c r="D480" s="34"/>
-      <c r="E480" s="34"/>
-      <c r="F480" s="34"/>
-      <c r="G480" s="34"/>
-      <c r="H480" s="34"/>
-      <c r="I480" s="34"/>
-      <c r="J480" s="34"/>
-      <c r="K480" s="34"/>
-      <c r="L480" s="34"/>
-      <c r="M480" s="34"/>
+      <c r="A480" s="26"/>
+      <c r="B480" s="26"/>
+      <c r="C480" s="26"/>
+      <c r="D480" s="26"/>
+      <c r="E480" s="26"/>
+      <c r="F480" s="26"/>
+      <c r="G480" s="26"/>
+      <c r="H480" s="26"/>
+      <c r="I480" s="26"/>
+      <c r="J480" s="26"/>
+      <c r="K480" s="26"/>
+      <c r="L480" s="26"/>
+      <c r="M480" s="26"/>
     </row>
     <row r="481" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A481" s="34"/>
-      <c r="B481" s="34"/>
-      <c r="C481" s="34"/>
-      <c r="D481" s="34"/>
-      <c r="E481" s="34"/>
-      <c r="F481" s="34"/>
-      <c r="G481" s="34"/>
-      <c r="H481" s="34"/>
-      <c r="I481" s="34"/>
-      <c r="J481" s="34"/>
-      <c r="K481" s="34"/>
-      <c r="L481" s="34"/>
-      <c r="M481" s="34"/>
+      <c r="A481" s="26"/>
+      <c r="B481" s="26"/>
+      <c r="C481" s="26"/>
+      <c r="D481" s="26"/>
+      <c r="E481" s="26"/>
+      <c r="F481" s="26"/>
+      <c r="G481" s="26"/>
+      <c r="H481" s="26"/>
+      <c r="I481" s="26"/>
+      <c r="J481" s="26"/>
+      <c r="K481" s="26"/>
+      <c r="L481" s="26"/>
+      <c r="M481" s="26"/>
     </row>
     <row r="482" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A482" s="34"/>
-      <c r="B482" s="34"/>
-      <c r="C482" s="34"/>
-      <c r="D482" s="34"/>
-      <c r="E482" s="34"/>
-      <c r="F482" s="34"/>
-      <c r="G482" s="34"/>
-      <c r="H482" s="34"/>
-      <c r="I482" s="34"/>
-      <c r="J482" s="34"/>
-      <c r="K482" s="34"/>
-      <c r="L482" s="34"/>
-      <c r="M482" s="34"/>
+      <c r="A482" s="26"/>
+      <c r="B482" s="26"/>
+      <c r="C482" s="26"/>
+      <c r="D482" s="26"/>
+      <c r="E482" s="26"/>
+      <c r="F482" s="26"/>
+      <c r="G482" s="26"/>
+      <c r="H482" s="26"/>
+      <c r="I482" s="26"/>
+      <c r="J482" s="26"/>
+      <c r="K482" s="26"/>
+      <c r="L482" s="26"/>
+      <c r="M482" s="26"/>
     </row>
     <row r="483" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A483" s="34"/>
-      <c r="B483" s="34"/>
-      <c r="C483" s="34"/>
-      <c r="D483" s="34"/>
-      <c r="E483" s="34"/>
-      <c r="F483" s="34"/>
-      <c r="G483" s="34"/>
-      <c r="H483" s="34"/>
-      <c r="I483" s="34"/>
-      <c r="J483" s="34"/>
-      <c r="K483" s="34"/>
-      <c r="L483" s="34"/>
-      <c r="M483" s="34"/>
+      <c r="A483" s="26"/>
+      <c r="B483" s="26"/>
+      <c r="C483" s="26"/>
+      <c r="D483" s="26"/>
+      <c r="E483" s="26"/>
+      <c r="F483" s="26"/>
+      <c r="G483" s="26"/>
+      <c r="H483" s="26"/>
+      <c r="I483" s="26"/>
+      <c r="J483" s="26"/>
+      <c r="K483" s="26"/>
+      <c r="L483" s="26"/>
+      <c r="M483" s="26"/>
     </row>
     <row r="484" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A484" s="34"/>
-      <c r="B484" s="34"/>
-      <c r="C484" s="34"/>
-      <c r="D484" s="34"/>
-      <c r="E484" s="34"/>
-      <c r="F484" s="34"/>
-      <c r="G484" s="34"/>
-      <c r="H484" s="34"/>
-      <c r="I484" s="34"/>
-      <c r="J484" s="34"/>
-      <c r="K484" s="34"/>
-      <c r="L484" s="34"/>
-      <c r="M484" s="34"/>
+      <c r="A484" s="26"/>
+      <c r="B484" s="26"/>
+      <c r="C484" s="26"/>
+      <c r="D484" s="26"/>
+      <c r="E484" s="26"/>
+      <c r="F484" s="26"/>
+      <c r="G484" s="26"/>
+      <c r="H484" s="26"/>
+      <c r="I484" s="26"/>
+      <c r="J484" s="26"/>
+      <c r="K484" s="26"/>
+      <c r="L484" s="26"/>
+      <c r="M484" s="26"/>
     </row>
     <row r="485" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A485" s="34"/>
-      <c r="B485" s="34"/>
-      <c r="C485" s="34"/>
-      <c r="D485" s="34"/>
-      <c r="E485" s="34"/>
-      <c r="F485" s="34"/>
-      <c r="G485" s="34"/>
-      <c r="H485" s="34"/>
-      <c r="I485" s="34"/>
-      <c r="J485" s="34"/>
-      <c r="K485" s="34"/>
-      <c r="L485" s="34"/>
-      <c r="M485" s="34"/>
+      <c r="A485" s="26"/>
+      <c r="B485" s="26"/>
+      <c r="C485" s="26"/>
+      <c r="D485" s="26"/>
+      <c r="E485" s="26"/>
+      <c r="F485" s="26"/>
+      <c r="G485" s="26"/>
+      <c r="H485" s="26"/>
+      <c r="I485" s="26"/>
+      <c r="J485" s="26"/>
+      <c r="K485" s="26"/>
+      <c r="L485" s="26"/>
+      <c r="M485" s="26"/>
     </row>
     <row r="486" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A486" s="34"/>
-      <c r="B486" s="34"/>
-      <c r="C486" s="34"/>
-      <c r="D486" s="34"/>
-      <c r="E486" s="34"/>
-      <c r="F486" s="34"/>
-      <c r="G486" s="34"/>
-      <c r="H486" s="34"/>
-      <c r="I486" s="34"/>
-      <c r="J486" s="34"/>
-      <c r="K486" s="34"/>
-      <c r="L486" s="34"/>
-      <c r="M486" s="34"/>
+      <c r="A486" s="26"/>
+      <c r="B486" s="26"/>
+      <c r="C486" s="26"/>
+      <c r="D486" s="26"/>
+      <c r="E486" s="26"/>
+      <c r="F486" s="26"/>
+      <c r="G486" s="26"/>
+      <c r="H486" s="26"/>
+      <c r="I486" s="26"/>
+      <c r="J486" s="26"/>
+      <c r="K486" s="26"/>
+      <c r="L486" s="26"/>
+      <c r="M486" s="26"/>
     </row>
     <row r="487" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A487" s="34"/>
-      <c r="B487" s="34"/>
-      <c r="C487" s="34"/>
-      <c r="D487" s="34"/>
-      <c r="E487" s="34"/>
-      <c r="F487" s="34"/>
-      <c r="G487" s="34"/>
-      <c r="H487" s="34"/>
-      <c r="I487" s="34"/>
-      <c r="J487" s="34"/>
-      <c r="K487" s="34"/>
-      <c r="L487" s="34"/>
-      <c r="M487" s="34"/>
+      <c r="A487" s="26"/>
+      <c r="B487" s="26"/>
+      <c r="C487" s="26"/>
+      <c r="D487" s="26"/>
+      <c r="E487" s="26"/>
+      <c r="F487" s="26"/>
+      <c r="G487" s="26"/>
+      <c r="H487" s="26"/>
+      <c r="I487" s="26"/>
+      <c r="J487" s="26"/>
+      <c r="K487" s="26"/>
+      <c r="L487" s="26"/>
+      <c r="M487" s="26"/>
     </row>
     <row r="488" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A488" s="34"/>
-      <c r="B488" s="34"/>
-      <c r="C488" s="34"/>
-      <c r="D488" s="34"/>
-      <c r="E488" s="34"/>
-      <c r="F488" s="34"/>
-      <c r="G488" s="34"/>
-      <c r="H488" s="34"/>
-      <c r="I488" s="34"/>
-      <c r="J488" s="34"/>
-      <c r="K488" s="34"/>
-      <c r="L488" s="34"/>
-      <c r="M488" s="34"/>
+      <c r="A488" s="26"/>
+      <c r="B488" s="26"/>
+      <c r="C488" s="26"/>
+      <c r="D488" s="26"/>
+      <c r="E488" s="26"/>
+      <c r="F488" s="26"/>
+      <c r="G488" s="26"/>
+      <c r="H488" s="26"/>
+      <c r="I488" s="26"/>
+      <c r="J488" s="26"/>
+      <c r="K488" s="26"/>
+      <c r="L488" s="26"/>
+      <c r="M488" s="26"/>
     </row>
     <row r="489" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A489" s="34"/>
-      <c r="B489" s="34"/>
-      <c r="C489" s="34"/>
-      <c r="D489" s="34"/>
-      <c r="E489" s="34"/>
-      <c r="F489" s="34"/>
-      <c r="G489" s="34"/>
-      <c r="H489" s="34"/>
-      <c r="I489" s="34"/>
-      <c r="J489" s="34"/>
-      <c r="K489" s="34"/>
-      <c r="L489" s="34"/>
-      <c r="M489" s="34"/>
+      <c r="A489" s="26"/>
+      <c r="B489" s="26"/>
+      <c r="C489" s="26"/>
+      <c r="D489" s="26"/>
+      <c r="E489" s="26"/>
+      <c r="F489" s="26"/>
+      <c r="G489" s="26"/>
+      <c r="H489" s="26"/>
+      <c r="I489" s="26"/>
+      <c r="J489" s="26"/>
+      <c r="K489" s="26"/>
+      <c r="L489" s="26"/>
+      <c r="M489" s="26"/>
     </row>
     <row r="490" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A490" s="34"/>
-      <c r="B490" s="34"/>
-      <c r="C490" s="34"/>
-      <c r="D490" s="34"/>
-      <c r="E490" s="34"/>
-      <c r="F490" s="34"/>
-      <c r="G490" s="34"/>
-      <c r="H490" s="34"/>
-      <c r="I490" s="34"/>
-      <c r="J490" s="34"/>
-      <c r="K490" s="34"/>
-      <c r="L490" s="34"/>
-      <c r="M490" s="34"/>
+      <c r="A490" s="26"/>
+      <c r="B490" s="26"/>
+      <c r="C490" s="26"/>
+      <c r="D490" s="26"/>
+      <c r="E490" s="26"/>
+      <c r="F490" s="26"/>
+      <c r="G490" s="26"/>
+      <c r="H490" s="26"/>
+      <c r="I490" s="26"/>
+      <c r="J490" s="26"/>
+      <c r="K490" s="26"/>
+      <c r="L490" s="26"/>
+      <c r="M490" s="26"/>
     </row>
     <row r="491" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A491" s="34"/>
-      <c r="B491" s="34"/>
-      <c r="C491" s="34"/>
-      <c r="D491" s="34"/>
-      <c r="E491" s="34"/>
-      <c r="F491" s="34"/>
-      <c r="G491" s="34"/>
-      <c r="H491" s="34"/>
-      <c r="I491" s="34"/>
-      <c r="J491" s="34"/>
-      <c r="K491" s="34"/>
-      <c r="L491" s="34"/>
-      <c r="M491" s="34"/>
+      <c r="A491" s="26"/>
+      <c r="B491" s="26"/>
+      <c r="C491" s="26"/>
+      <c r="D491" s="26"/>
+      <c r="E491" s="26"/>
+      <c r="F491" s="26"/>
+      <c r="G491" s="26"/>
+      <c r="H491" s="26"/>
+      <c r="I491" s="26"/>
+      <c r="J491" s="26"/>
+      <c r="K491" s="26"/>
+      <c r="L491" s="26"/>
+      <c r="M491" s="26"/>
     </row>
     <row r="492" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A492" s="34"/>
-      <c r="B492" s="34"/>
-      <c r="C492" s="34"/>
-      <c r="D492" s="34"/>
-      <c r="E492" s="34"/>
-      <c r="F492" s="34"/>
-      <c r="G492" s="34"/>
-      <c r="H492" s="34"/>
-      <c r="I492" s="34"/>
-      <c r="J492" s="34"/>
-      <c r="K492" s="34"/>
-      <c r="L492" s="34"/>
-      <c r="M492" s="34"/>
+      <c r="A492" s="26"/>
+      <c r="B492" s="26"/>
+      <c r="C492" s="26"/>
+      <c r="D492" s="26"/>
+      <c r="E492" s="26"/>
+      <c r="F492" s="26"/>
+      <c r="G492" s="26"/>
+      <c r="H492" s="26"/>
+      <c r="I492" s="26"/>
+      <c r="J492" s="26"/>
+      <c r="K492" s="26"/>
+      <c r="L492" s="26"/>
+      <c r="M492" s="26"/>
     </row>
     <row r="493" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A493" s="34"/>
-      <c r="B493" s="34"/>
-      <c r="C493" s="34"/>
-      <c r="D493" s="34"/>
-      <c r="E493" s="34"/>
-      <c r="F493" s="34"/>
-      <c r="G493" s="34"/>
-      <c r="H493" s="34"/>
-      <c r="I493" s="34"/>
-      <c r="J493" s="34"/>
-      <c r="K493" s="34"/>
-      <c r="L493" s="34"/>
-      <c r="M493" s="34"/>
+      <c r="A493" s="26"/>
+      <c r="B493" s="26"/>
+      <c r="C493" s="26"/>
+      <c r="D493" s="26"/>
+      <c r="E493" s="26"/>
+      <c r="F493" s="26"/>
+      <c r="G493" s="26"/>
+      <c r="H493" s="26"/>
+      <c r="I493" s="26"/>
+      <c r="J493" s="26"/>
+      <c r="K493" s="26"/>
+      <c r="L493" s="26"/>
+      <c r="M493" s="26"/>
     </row>
     <row r="494" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A494" s="34"/>
-      <c r="B494" s="34"/>
-      <c r="C494" s="34"/>
-      <c r="D494" s="34"/>
-      <c r="E494" s="34"/>
-      <c r="F494" s="34"/>
-      <c r="G494" s="34"/>
-      <c r="H494" s="34"/>
-      <c r="I494" s="34"/>
-      <c r="J494" s="34"/>
-      <c r="K494" s="34"/>
-      <c r="L494" s="34"/>
-      <c r="M494" s="34"/>
+      <c r="A494" s="26"/>
+      <c r="B494" s="26"/>
+      <c r="C494" s="26"/>
+      <c r="D494" s="26"/>
+      <c r="E494" s="26"/>
+      <c r="F494" s="26"/>
+      <c r="G494" s="26"/>
+      <c r="H494" s="26"/>
+      <c r="I494" s="26"/>
+      <c r="J494" s="26"/>
+      <c r="K494" s="26"/>
+      <c r="L494" s="26"/>
+      <c r="M494" s="26"/>
     </row>
     <row r="495" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A495" s="34"/>
-      <c r="B495" s="34"/>
-      <c r="C495" s="34"/>
-      <c r="D495" s="34"/>
-      <c r="E495" s="34"/>
-      <c r="F495" s="34"/>
-      <c r="G495" s="34"/>
-      <c r="H495" s="34"/>
-      <c r="I495" s="34"/>
-      <c r="J495" s="34"/>
-      <c r="K495" s="34"/>
-      <c r="L495" s="34"/>
-      <c r="M495" s="34"/>
+      <c r="A495" s="26"/>
+      <c r="B495" s="26"/>
+      <c r="C495" s="26"/>
+      <c r="D495" s="26"/>
+      <c r="E495" s="26"/>
+      <c r="F495" s="26"/>
+      <c r="G495" s="26"/>
+      <c r="H495" s="26"/>
+      <c r="I495" s="26"/>
+      <c r="J495" s="26"/>
+      <c r="K495" s="26"/>
+      <c r="L495" s="26"/>
+      <c r="M495" s="26"/>
     </row>
     <row r="496" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A496" s="34"/>
-      <c r="B496" s="34"/>
-      <c r="C496" s="34"/>
-      <c r="D496" s="34"/>
-      <c r="E496" s="34"/>
-      <c r="F496" s="34"/>
-      <c r="G496" s="34"/>
-      <c r="H496" s="34"/>
-      <c r="I496" s="34"/>
-      <c r="J496" s="34"/>
-      <c r="K496" s="34"/>
-      <c r="L496" s="34"/>
-      <c r="M496" s="34"/>
+      <c r="A496" s="26"/>
+      <c r="B496" s="26"/>
+      <c r="C496" s="26"/>
+      <c r="D496" s="26"/>
+      <c r="E496" s="26"/>
+      <c r="F496" s="26"/>
+      <c r="G496" s="26"/>
+      <c r="H496" s="26"/>
+      <c r="I496" s="26"/>
+      <c r="J496" s="26"/>
+      <c r="K496" s="26"/>
+      <c r="L496" s="26"/>
+      <c r="M496" s="26"/>
     </row>
     <row r="497" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A497" s="34" t="s">
+      <c r="A497" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B497" s="34"/>
-      <c r="C497" s="34"/>
-      <c r="D497" s="34"/>
-      <c r="E497" s="34"/>
-      <c r="F497" s="34"/>
-      <c r="G497" s="34"/>
-      <c r="H497" s="34"/>
-      <c r="I497" s="34"/>
-      <c r="J497" s="34"/>
-      <c r="K497" s="34"/>
-      <c r="L497" s="34"/>
-      <c r="M497" s="34"/>
+      <c r="B497" s="26"/>
+      <c r="C497" s="26"/>
+      <c r="D497" s="26"/>
+      <c r="E497" s="26"/>
+      <c r="F497" s="26"/>
+      <c r="G497" s="26"/>
+      <c r="H497" s="26"/>
+      <c r="I497" s="26"/>
+      <c r="J497" s="26"/>
+      <c r="K497" s="26"/>
+      <c r="L497" s="26"/>
+      <c r="M497" s="26"/>
     </row>
     <row r="498" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A498" s="34"/>
-      <c r="B498" s="34" t="s">
+      <c r="A498" s="26"/>
+      <c r="B498" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="C498" s="34"/>
-      <c r="D498" s="34"/>
-      <c r="E498" s="34"/>
-      <c r="F498" s="34"/>
-      <c r="G498" s="34"/>
-      <c r="H498" s="34"/>
-      <c r="I498" s="34"/>
-      <c r="J498" s="34"/>
-      <c r="K498" s="34"/>
-      <c r="L498" s="34"/>
-      <c r="M498" s="34"/>
+      <c r="C498" s="26"/>
+      <c r="D498" s="26"/>
+      <c r="E498" s="26"/>
+      <c r="F498" s="26"/>
+      <c r="G498" s="26"/>
+      <c r="H498" s="26"/>
+      <c r="I498" s="26"/>
+      <c r="J498" s="26"/>
+      <c r="K498" s="26"/>
+      <c r="L498" s="26"/>
+      <c r="M498" s="26"/>
     </row>
     <row r="499" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A499" s="34"/>
-      <c r="B499" s="34" t="s">
+      <c r="A499" s="26"/>
+      <c r="B499" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="C499" s="34"/>
-      <c r="D499" s="34"/>
-      <c r="E499" s="34"/>
-      <c r="F499" s="34"/>
-      <c r="G499" s="34"/>
-      <c r="H499" s="34"/>
-      <c r="I499" s="34"/>
-      <c r="J499" s="34"/>
-      <c r="K499" s="34"/>
-      <c r="L499" s="34"/>
-      <c r="M499" s="34"/>
+      <c r="C499" s="26"/>
+      <c r="D499" s="26"/>
+      <c r="E499" s="26"/>
+      <c r="F499" s="26"/>
+      <c r="G499" s="26"/>
+      <c r="H499" s="26"/>
+      <c r="I499" s="26"/>
+      <c r="J499" s="26"/>
+      <c r="K499" s="26"/>
+      <c r="L499" s="26"/>
+      <c r="M499" s="26"/>
     </row>
     <row r="500" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A500" s="34"/>
-      <c r="B500" s="34"/>
-      <c r="C500" s="34"/>
-      <c r="D500" s="34"/>
-      <c r="E500" s="34"/>
-      <c r="F500" s="34"/>
-      <c r="G500" s="34"/>
-      <c r="H500" s="34"/>
-      <c r="I500" s="34"/>
-      <c r="J500" s="34"/>
-      <c r="K500" s="34"/>
-      <c r="L500" s="34"/>
-      <c r="M500" s="34"/>
+      <c r="A500" s="26"/>
+      <c r="B500" s="26"/>
+      <c r="C500" s="26"/>
+      <c r="D500" s="26"/>
+      <c r="E500" s="26"/>
+      <c r="F500" s="26"/>
+      <c r="G500" s="26"/>
+      <c r="H500" s="26"/>
+      <c r="I500" s="26"/>
+      <c r="J500" s="26"/>
+      <c r="K500" s="26"/>
+      <c r="L500" s="26"/>
+      <c r="M500" s="26"/>
     </row>
     <row r="501" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A501" s="34"/>
-      <c r="B501" s="34"/>
-      <c r="C501" s="34"/>
-      <c r="D501" s="34"/>
-      <c r="E501" s="34"/>
-      <c r="F501" s="34"/>
-      <c r="G501" s="34"/>
-      <c r="H501" s="34"/>
-      <c r="I501" s="34"/>
-      <c r="J501" s="34"/>
-      <c r="K501" s="34"/>
-      <c r="L501" s="34"/>
-      <c r="M501" s="34"/>
+      <c r="A501" s="26"/>
+      <c r="B501" s="26"/>
+      <c r="C501" s="26"/>
+      <c r="D501" s="26"/>
+      <c r="E501" s="26"/>
+      <c r="F501" s="26"/>
+      <c r="G501" s="26"/>
+      <c r="H501" s="26"/>
+      <c r="I501" s="26"/>
+      <c r="J501" s="26"/>
+      <c r="K501" s="26"/>
+      <c r="L501" s="26"/>
+      <c r="M501" s="26"/>
     </row>
     <row r="502" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A502" s="34"/>
-      <c r="B502" s="34"/>
-      <c r="C502" s="34"/>
-      <c r="D502" s="34"/>
-      <c r="E502" s="34"/>
-      <c r="F502" s="34"/>
-      <c r="G502" s="34"/>
-      <c r="H502" s="34"/>
-      <c r="I502" s="34"/>
-      <c r="J502" s="34"/>
-      <c r="K502" s="34"/>
-      <c r="L502" s="34"/>
-      <c r="M502" s="34"/>
+      <c r="A502" s="26"/>
+      <c r="B502" s="26"/>
+      <c r="C502" s="26"/>
+      <c r="D502" s="26"/>
+      <c r="E502" s="26"/>
+      <c r="F502" s="26"/>
+      <c r="G502" s="26"/>
+      <c r="H502" s="26"/>
+      <c r="I502" s="26"/>
+      <c r="J502" s="26"/>
+      <c r="K502" s="26"/>
+      <c r="L502" s="26"/>
+      <c r="M502" s="26"/>
     </row>
     <row r="503" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A503" s="34"/>
-      <c r="B503" s="34"/>
-      <c r="C503" s="34"/>
-      <c r="D503" s="34"/>
-      <c r="E503" s="34"/>
-      <c r="F503" s="34"/>
-      <c r="G503" s="34"/>
-      <c r="H503" s="34"/>
-      <c r="I503" s="34"/>
-      <c r="J503" s="34"/>
-      <c r="K503" s="34"/>
-      <c r="L503" s="34"/>
-      <c r="M503" s="34"/>
+      <c r="A503" s="26"/>
+      <c r="B503" s="26"/>
+      <c r="C503" s="26"/>
+      <c r="D503" s="26"/>
+      <c r="E503" s="26"/>
+      <c r="F503" s="26"/>
+      <c r="G503" s="26"/>
+      <c r="H503" s="26"/>
+      <c r="I503" s="26"/>
+      <c r="J503" s="26"/>
+      <c r="K503" s="26"/>
+      <c r="L503" s="26"/>
+      <c r="M503" s="26"/>
     </row>
     <row r="504" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A504" s="34"/>
-      <c r="B504" s="34"/>
-      <c r="C504" s="34"/>
-      <c r="D504" s="34"/>
-      <c r="E504" s="34"/>
-      <c r="F504" s="34"/>
-      <c r="G504" s="34"/>
-      <c r="H504" s="34"/>
-      <c r="I504" s="34"/>
-      <c r="J504" s="34"/>
-      <c r="K504" s="34"/>
-      <c r="L504" s="34"/>
-      <c r="M504" s="34"/>
+      <c r="A504" s="26"/>
+      <c r="B504" s="26"/>
+      <c r="C504" s="26"/>
+      <c r="D504" s="26"/>
+      <c r="E504" s="26"/>
+      <c r="F504" s="26"/>
+      <c r="G504" s="26"/>
+      <c r="H504" s="26"/>
+      <c r="I504" s="26"/>
+      <c r="J504" s="26"/>
+      <c r="K504" s="26"/>
+      <c r="L504" s="26"/>
+      <c r="M504" s="26"/>
     </row>
     <row r="505" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A505" s="34"/>
-      <c r="B505" s="34"/>
-      <c r="C505" s="34"/>
-      <c r="D505" s="34"/>
-      <c r="E505" s="34"/>
-      <c r="F505" s="34"/>
-      <c r="G505" s="34"/>
-      <c r="H505" s="34"/>
-      <c r="I505" s="34"/>
-      <c r="J505" s="34"/>
-      <c r="K505" s="34"/>
-      <c r="L505" s="34"/>
-      <c r="M505" s="34"/>
+      <c r="A505" s="26"/>
+      <c r="B505" s="26"/>
+      <c r="C505" s="26"/>
+      <c r="D505" s="26"/>
+      <c r="E505" s="26"/>
+      <c r="F505" s="26"/>
+      <c r="G505" s="26"/>
+      <c r="H505" s="26"/>
+      <c r="I505" s="26"/>
+      <c r="J505" s="26"/>
+      <c r="K505" s="26"/>
+      <c r="L505" s="26"/>
+      <c r="M505" s="26"/>
     </row>
     <row r="506" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A506" s="34"/>
-      <c r="B506" s="34"/>
-      <c r="C506" s="34"/>
-      <c r="D506" s="34"/>
-      <c r="E506" s="34"/>
-      <c r="F506" s="34"/>
-      <c r="G506" s="34"/>
-      <c r="H506" s="34"/>
-      <c r="I506" s="34"/>
-      <c r="J506" s="34"/>
-      <c r="K506" s="34"/>
-      <c r="L506" s="34"/>
-      <c r="M506" s="34"/>
+      <c r="A506" s="26"/>
+      <c r="B506" s="26"/>
+      <c r="C506" s="26"/>
+      <c r="D506" s="26"/>
+      <c r="E506" s="26"/>
+      <c r="F506" s="26"/>
+      <c r="G506" s="26"/>
+      <c r="H506" s="26"/>
+      <c r="I506" s="26"/>
+      <c r="J506" s="26"/>
+      <c r="K506" s="26"/>
+      <c r="L506" s="26"/>
+      <c r="M506" s="26"/>
     </row>
     <row r="507" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A507" s="34"/>
-      <c r="B507" s="34"/>
-      <c r="C507" s="34"/>
-      <c r="D507" s="34"/>
-      <c r="E507" s="34"/>
-      <c r="F507" s="34"/>
-      <c r="G507" s="34"/>
-      <c r="H507" s="34"/>
-      <c r="I507" s="34"/>
-      <c r="J507" s="34"/>
-      <c r="K507" s="34"/>
-      <c r="L507" s="34"/>
-      <c r="M507" s="34"/>
+      <c r="A507" s="26"/>
+      <c r="B507" s="26"/>
+      <c r="C507" s="26"/>
+      <c r="D507" s="26"/>
+      <c r="E507" s="26"/>
+      <c r="F507" s="26"/>
+      <c r="G507" s="26"/>
+      <c r="H507" s="26"/>
+      <c r="I507" s="26"/>
+      <c r="J507" s="26"/>
+      <c r="K507" s="26"/>
+      <c r="L507" s="26"/>
+      <c r="M507" s="26"/>
     </row>
     <row r="508" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A508" s="34"/>
-      <c r="B508" s="34"/>
-      <c r="C508" s="34"/>
-      <c r="D508" s="34"/>
-      <c r="E508" s="34"/>
-      <c r="F508" s="34"/>
-      <c r="G508" s="34"/>
-      <c r="H508" s="34"/>
-      <c r="I508" s="34"/>
-      <c r="J508" s="34"/>
-      <c r="K508" s="34"/>
-      <c r="L508" s="34"/>
-      <c r="M508" s="34"/>
+      <c r="A508" s="26"/>
+      <c r="B508" s="26"/>
+      <c r="C508" s="26"/>
+      <c r="D508" s="26"/>
+      <c r="E508" s="26"/>
+      <c r="F508" s="26"/>
+      <c r="G508" s="26"/>
+      <c r="H508" s="26"/>
+      <c r="I508" s="26"/>
+      <c r="J508" s="26"/>
+      <c r="K508" s="26"/>
+      <c r="L508" s="26"/>
+      <c r="M508" s="26"/>
     </row>
     <row r="509" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A509" s="34"/>
-      <c r="B509" s="34"/>
-      <c r="C509" s="34"/>
-      <c r="D509" s="34"/>
-      <c r="E509" s="34"/>
-      <c r="F509" s="34"/>
-      <c r="G509" s="34"/>
-      <c r="H509" s="34"/>
-      <c r="I509" s="34"/>
-      <c r="J509" s="34"/>
-      <c r="K509" s="34"/>
-      <c r="L509" s="34"/>
-      <c r="M509" s="34"/>
+      <c r="A509" s="26"/>
+      <c r="B509" s="26"/>
+      <c r="C509" s="26"/>
+      <c r="D509" s="26"/>
+      <c r="E509" s="26"/>
+      <c r="F509" s="26"/>
+      <c r="G509" s="26"/>
+      <c r="H509" s="26"/>
+      <c r="I509" s="26"/>
+      <c r="J509" s="26"/>
+      <c r="K509" s="26"/>
+      <c r="L509" s="26"/>
+      <c r="M509" s="26"/>
     </row>
     <row r="510" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A510" s="34"/>
-      <c r="B510" s="34"/>
-      <c r="C510" s="34"/>
-      <c r="D510" s="34"/>
-      <c r="E510" s="34"/>
-      <c r="F510" s="34"/>
-      <c r="G510" s="34"/>
-      <c r="H510" s="34"/>
-      <c r="I510" s="34"/>
-      <c r="J510" s="34"/>
-      <c r="K510" s="34"/>
-      <c r="L510" s="34"/>
-      <c r="M510" s="34"/>
+      <c r="A510" s="26"/>
+      <c r="B510" s="26"/>
+      <c r="C510" s="26"/>
+      <c r="D510" s="26"/>
+      <c r="E510" s="26"/>
+      <c r="F510" s="26"/>
+      <c r="G510" s="26"/>
+      <c r="H510" s="26"/>
+      <c r="I510" s="26"/>
+      <c r="J510" s="26"/>
+      <c r="K510" s="26"/>
+      <c r="L510" s="26"/>
+      <c r="M510" s="26"/>
     </row>
     <row r="511" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A511" s="34" t="s">
+      <c r="A511" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="B511" s="34"/>
-      <c r="C511" s="34"/>
-      <c r="D511" s="34"/>
-      <c r="E511" s="34"/>
-      <c r="F511" s="34"/>
-      <c r="G511" s="34"/>
-      <c r="H511" s="34"/>
-      <c r="I511" s="34"/>
-      <c r="J511" s="34"/>
-      <c r="K511" s="34"/>
-      <c r="L511" s="34"/>
-      <c r="M511" s="34"/>
+      <c r="B511" s="26"/>
+      <c r="C511" s="26"/>
+      <c r="D511" s="26"/>
+      <c r="E511" s="26"/>
+      <c r="F511" s="26"/>
+      <c r="G511" s="26"/>
+      <c r="H511" s="26"/>
+      <c r="I511" s="26"/>
+      <c r="J511" s="26"/>
+      <c r="K511" s="26"/>
+      <c r="L511" s="26"/>
+      <c r="M511" s="26"/>
     </row>
     <row r="512" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A512" s="34"/>
-      <c r="B512" s="34" t="s">
+      <c r="A512" s="26"/>
+      <c r="B512" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C512" s="34"/>
-      <c r="D512" s="34"/>
-      <c r="E512" s="34"/>
-      <c r="F512" s="34"/>
-      <c r="G512" s="34"/>
-      <c r="H512" s="34"/>
-      <c r="I512" s="34"/>
-      <c r="J512" s="34"/>
-      <c r="K512" s="34"/>
-      <c r="L512" s="34"/>
-      <c r="M512" s="34"/>
+      <c r="C512" s="26"/>
+      <c r="D512" s="26"/>
+      <c r="E512" s="26"/>
+      <c r="F512" s="26"/>
+      <c r="G512" s="26"/>
+      <c r="H512" s="26"/>
+      <c r="I512" s="26"/>
+      <c r="J512" s="26"/>
+      <c r="K512" s="26"/>
+      <c r="L512" s="26"/>
+      <c r="M512" s="26"/>
     </row>
     <row r="513" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A513" s="34"/>
-      <c r="B513" s="34"/>
-      <c r="C513" s="34"/>
-      <c r="D513" s="34"/>
-      <c r="E513" s="34"/>
-      <c r="F513" s="34"/>
-      <c r="G513" s="34"/>
-      <c r="H513" s="34"/>
-      <c r="I513" s="34"/>
-      <c r="J513" s="34"/>
-      <c r="K513" s="34"/>
-      <c r="L513" s="34"/>
-      <c r="M513" s="34"/>
+      <c r="A513" s="26"/>
+      <c r="B513" s="26"/>
+      <c r="C513" s="26"/>
+      <c r="D513" s="26"/>
+      <c r="E513" s="26"/>
+      <c r="F513" s="26"/>
+      <c r="G513" s="26"/>
+      <c r="H513" s="26"/>
+      <c r="I513" s="26"/>
+      <c r="J513" s="26"/>
+      <c r="K513" s="26"/>
+      <c r="L513" s="26"/>
+      <c r="M513" s="26"/>
     </row>
     <row r="514" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A514" s="34"/>
-      <c r="B514" s="34"/>
-      <c r="C514" s="34"/>
-      <c r="D514" s="34"/>
-      <c r="E514" s="34"/>
-      <c r="F514" s="34"/>
-      <c r="G514" s="34"/>
-      <c r="H514" s="34"/>
-      <c r="I514" s="34"/>
-      <c r="J514" s="34"/>
-      <c r="K514" s="34"/>
-      <c r="L514" s="34"/>
-      <c r="M514" s="34"/>
+      <c r="A514" s="26"/>
+      <c r="B514" s="26"/>
+      <c r="C514" s="26"/>
+      <c r="D514" s="26"/>
+      <c r="E514" s="26"/>
+      <c r="F514" s="26"/>
+      <c r="G514" s="26"/>
+      <c r="H514" s="26"/>
+      <c r="I514" s="26"/>
+      <c r="J514" s="26"/>
+      <c r="K514" s="26"/>
+      <c r="L514" s="26"/>
+      <c r="M514" s="26"/>
     </row>
     <row r="515" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A515" s="34"/>
-      <c r="B515" s="34"/>
-      <c r="C515" s="34"/>
-      <c r="D515" s="34"/>
-      <c r="E515" s="34"/>
-      <c r="F515" s="34"/>
-      <c r="G515" s="34"/>
-      <c r="H515" s="34"/>
-      <c r="I515" s="34"/>
-      <c r="J515" s="34"/>
-      <c r="K515" s="34"/>
-      <c r="L515" s="34"/>
-      <c r="M515" s="34"/>
+      <c r="A515" s="26"/>
+      <c r="B515" s="26"/>
+      <c r="C515" s="26"/>
+      <c r="D515" s="26"/>
+      <c r="E515" s="26"/>
+      <c r="F515" s="26"/>
+      <c r="G515" s="26"/>
+      <c r="H515" s="26"/>
+      <c r="I515" s="26"/>
+      <c r="J515" s="26"/>
+      <c r="K515" s="26"/>
+      <c r="L515" s="26"/>
+      <c r="M515" s="26"/>
     </row>
     <row r="516" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A516" s="34"/>
-      <c r="B516" s="34"/>
-      <c r="C516" s="34"/>
-      <c r="D516" s="34"/>
-      <c r="E516" s="34"/>
-      <c r="F516" s="34"/>
-      <c r="G516" s="34"/>
-      <c r="H516" s="34"/>
-      <c r="I516" s="34"/>
-      <c r="J516" s="34"/>
-      <c r="K516" s="34"/>
-      <c r="L516" s="34"/>
-      <c r="M516" s="34"/>
+      <c r="A516" s="26"/>
+      <c r="B516" s="26"/>
+      <c r="C516" s="26"/>
+      <c r="D516" s="26"/>
+      <c r="E516" s="26"/>
+      <c r="F516" s="26"/>
+      <c r="G516" s="26"/>
+      <c r="H516" s="26"/>
+      <c r="I516" s="26"/>
+      <c r="J516" s="26"/>
+      <c r="K516" s="26"/>
+      <c r="L516" s="26"/>
+      <c r="M516" s="26"/>
     </row>
     <row r="517" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A517" s="34"/>
-      <c r="B517" s="34"/>
-      <c r="C517" s="34"/>
-      <c r="D517" s="34"/>
-      <c r="E517" s="34"/>
-      <c r="F517" s="34"/>
-      <c r="G517" s="34"/>
-      <c r="H517" s="34"/>
-      <c r="I517" s="34"/>
-      <c r="J517" s="34"/>
-      <c r="K517" s="34"/>
-      <c r="L517" s="34"/>
-      <c r="M517" s="34"/>
+      <c r="A517" s="26"/>
+      <c r="B517" s="26"/>
+      <c r="C517" s="26"/>
+      <c r="D517" s="26"/>
+      <c r="E517" s="26"/>
+      <c r="F517" s="26"/>
+      <c r="G517" s="26"/>
+      <c r="H517" s="26"/>
+      <c r="I517" s="26"/>
+      <c r="J517" s="26"/>
+      <c r="K517" s="26"/>
+      <c r="L517" s="26"/>
+      <c r="M517" s="26"/>
     </row>
     <row r="518" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A518" s="34"/>
-      <c r="B518" s="34"/>
-      <c r="C518" s="34"/>
-      <c r="D518" s="34"/>
-      <c r="E518" s="34"/>
-      <c r="F518" s="34"/>
-      <c r="G518" s="34"/>
-      <c r="H518" s="34"/>
-      <c r="I518" s="34"/>
-      <c r="J518" s="34"/>
-      <c r="K518" s="34"/>
-      <c r="L518" s="34"/>
-      <c r="M518" s="34"/>
+      <c r="A518" s="26"/>
+      <c r="B518" s="26"/>
+      <c r="C518" s="26"/>
+      <c r="D518" s="26"/>
+      <c r="E518" s="26"/>
+      <c r="F518" s="26"/>
+      <c r="G518" s="26"/>
+      <c r="H518" s="26"/>
+      <c r="I518" s="26"/>
+      <c r="J518" s="26"/>
+      <c r="K518" s="26"/>
+      <c r="L518" s="26"/>
+      <c r="M518" s="26"/>
     </row>
     <row r="519" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A519" s="34"/>
-      <c r="B519" s="34"/>
-      <c r="C519" s="34"/>
-      <c r="D519" s="34"/>
-      <c r="E519" s="34"/>
-      <c r="F519" s="34"/>
-      <c r="G519" s="34"/>
-      <c r="H519" s="34"/>
-      <c r="I519" s="34"/>
-      <c r="J519" s="34"/>
-      <c r="K519" s="34"/>
-      <c r="L519" s="34"/>
-      <c r="M519" s="34"/>
+      <c r="A519" s="26"/>
+      <c r="B519" s="26"/>
+      <c r="C519" s="26"/>
+      <c r="D519" s="26"/>
+      <c r="E519" s="26"/>
+      <c r="F519" s="26"/>
+      <c r="G519" s="26"/>
+      <c r="H519" s="26"/>
+      <c r="I519" s="26"/>
+      <c r="J519" s="26"/>
+      <c r="K519" s="26"/>
+      <c r="L519" s="26"/>
+      <c r="M519" s="26"/>
     </row>
     <row r="520" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A520" s="34"/>
-      <c r="B520" s="34"/>
-      <c r="C520" s="34"/>
-      <c r="D520" s="34"/>
-      <c r="E520" s="34"/>
-      <c r="F520" s="34"/>
-      <c r="G520" s="34"/>
-      <c r="H520" s="34"/>
-      <c r="I520" s="34"/>
-      <c r="J520" s="34"/>
-      <c r="K520" s="34"/>
-      <c r="L520" s="34"/>
-      <c r="M520" s="34"/>
+      <c r="A520" s="26"/>
+      <c r="B520" s="26"/>
+      <c r="C520" s="26"/>
+      <c r="D520" s="26"/>
+      <c r="E520" s="26"/>
+      <c r="F520" s="26"/>
+      <c r="G520" s="26"/>
+      <c r="H520" s="26"/>
+      <c r="I520" s="26"/>
+      <c r="J520" s="26"/>
+      <c r="K520" s="26"/>
+      <c r="L520" s="26"/>
+      <c r="M520" s="26"/>
     </row>
     <row r="521" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A521" s="34"/>
-      <c r="B521" s="34"/>
-      <c r="C521" s="34"/>
-      <c r="D521" s="34"/>
-      <c r="E521" s="34"/>
-      <c r="F521" s="34"/>
-      <c r="G521" s="34"/>
-      <c r="H521" s="34"/>
-      <c r="I521" s="34"/>
-      <c r="J521" s="34"/>
-      <c r="K521" s="34"/>
-      <c r="L521" s="34"/>
-      <c r="M521" s="34"/>
+      <c r="A521" s="26"/>
+      <c r="B521" s="26"/>
+      <c r="C521" s="26"/>
+      <c r="D521" s="26"/>
+      <c r="E521" s="26"/>
+      <c r="F521" s="26"/>
+      <c r="G521" s="26"/>
+      <c r="H521" s="26"/>
+      <c r="I521" s="26"/>
+      <c r="J521" s="26"/>
+      <c r="K521" s="26"/>
+      <c r="L521" s="26"/>
+      <c r="M521" s="26"/>
     </row>
     <row r="522" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A522" s="34"/>
-      <c r="B522" s="34"/>
-      <c r="C522" s="34"/>
-      <c r="D522" s="34"/>
-      <c r="E522" s="34"/>
-      <c r="F522" s="34"/>
-      <c r="G522" s="34"/>
-      <c r="H522" s="34"/>
-      <c r="I522" s="34"/>
-      <c r="J522" s="34"/>
-      <c r="K522" s="34"/>
-      <c r="L522" s="34"/>
-      <c r="M522" s="34"/>
+      <c r="A522" s="26"/>
+      <c r="B522" s="26"/>
+      <c r="C522" s="26"/>
+      <c r="D522" s="26"/>
+      <c r="E522" s="26"/>
+      <c r="F522" s="26"/>
+      <c r="G522" s="26"/>
+      <c r="H522" s="26"/>
+      <c r="I522" s="26"/>
+      <c r="J522" s="26"/>
+      <c r="K522" s="26"/>
+      <c r="L522" s="26"/>
+      <c r="M522" s="26"/>
     </row>
     <row r="523" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A523" s="34"/>
-      <c r="B523" s="34"/>
-      <c r="C523" s="34"/>
-      <c r="D523" s="34"/>
-      <c r="E523" s="34"/>
-      <c r="F523" s="34"/>
-      <c r="G523" s="34"/>
-      <c r="H523" s="34"/>
-      <c r="I523" s="34"/>
-      <c r="J523" s="34"/>
-      <c r="K523" s="34"/>
-      <c r="L523" s="34"/>
-      <c r="M523" s="34"/>
+      <c r="A523" s="26"/>
+      <c r="B523" s="26"/>
+      <c r="C523" s="26"/>
+      <c r="D523" s="26"/>
+      <c r="E523" s="26"/>
+      <c r="F523" s="26"/>
+      <c r="G523" s="26"/>
+      <c r="H523" s="26"/>
+      <c r="I523" s="26"/>
+      <c r="J523" s="26"/>
+      <c r="K523" s="26"/>
+      <c r="L523" s="26"/>
+      <c r="M523" s="26"/>
     </row>
     <row r="524" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A524" s="34"/>
-      <c r="B524" s="34"/>
-      <c r="C524" s="34"/>
-      <c r="D524" s="34"/>
-      <c r="E524" s="34"/>
-      <c r="F524" s="34"/>
-      <c r="G524" s="34"/>
-      <c r="H524" s="34"/>
-      <c r="I524" s="34"/>
-      <c r="J524" s="34"/>
-      <c r="K524" s="34"/>
-      <c r="L524" s="34"/>
-      <c r="M524" s="34"/>
+      <c r="A524" s="26"/>
+      <c r="B524" s="26"/>
+      <c r="C524" s="26"/>
+      <c r="D524" s="26"/>
+      <c r="E524" s="26"/>
+      <c r="F524" s="26"/>
+      <c r="G524" s="26"/>
+      <c r="H524" s="26"/>
+      <c r="I524" s="26"/>
+      <c r="J524" s="26"/>
+      <c r="K524" s="26"/>
+      <c r="L524" s="26"/>
+      <c r="M524" s="26"/>
     </row>
     <row r="525" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A525" s="34"/>
-      <c r="B525" s="34"/>
-      <c r="C525" s="34"/>
-      <c r="D525" s="34"/>
-      <c r="E525" s="34"/>
-      <c r="F525" s="34"/>
-      <c r="G525" s="34"/>
-      <c r="H525" s="34"/>
-      <c r="I525" s="34"/>
-      <c r="J525" s="34"/>
-      <c r="K525" s="34"/>
-      <c r="L525" s="34"/>
-      <c r="M525" s="34"/>
+      <c r="A525" s="26"/>
+      <c r="B525" s="26"/>
+      <c r="C525" s="26"/>
+      <c r="D525" s="26"/>
+      <c r="E525" s="26"/>
+      <c r="F525" s="26"/>
+      <c r="G525" s="26"/>
+      <c r="H525" s="26"/>
+      <c r="I525" s="26"/>
+      <c r="J525" s="26"/>
+      <c r="K525" s="26"/>
+      <c r="L525" s="26"/>
+      <c r="M525" s="26"/>
     </row>
     <row r="526" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A526" s="34"/>
-      <c r="B526" s="34"/>
-      <c r="C526" s="34"/>
-      <c r="D526" s="34"/>
-      <c r="E526" s="34"/>
-      <c r="F526" s="34"/>
-      <c r="G526" s="34"/>
-      <c r="H526" s="34"/>
-      <c r="I526" s="34"/>
-      <c r="J526" s="34"/>
-      <c r="K526" s="34"/>
-      <c r="L526" s="34"/>
-      <c r="M526" s="34"/>
+      <c r="A526" s="26"/>
+      <c r="B526" s="26"/>
+      <c r="C526" s="26"/>
+      <c r="D526" s="26"/>
+      <c r="E526" s="26"/>
+      <c r="F526" s="26"/>
+      <c r="G526" s="26"/>
+      <c r="H526" s="26"/>
+      <c r="I526" s="26"/>
+      <c r="J526" s="26"/>
+      <c r="K526" s="26"/>
+      <c r="L526" s="26"/>
+      <c r="M526" s="26"/>
     </row>
     <row r="527" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A527" s="34"/>
-      <c r="B527" s="34"/>
-      <c r="C527" s="34"/>
-      <c r="D527" s="34"/>
-      <c r="E527" s="34"/>
-      <c r="F527" s="34"/>
-      <c r="G527" s="34"/>
-      <c r="H527" s="34"/>
-      <c r="I527" s="34"/>
-      <c r="J527" s="34"/>
-      <c r="K527" s="34"/>
-      <c r="L527" s="34"/>
-      <c r="M527" s="34"/>
+      <c r="A527" s="26"/>
+      <c r="B527" s="26"/>
+      <c r="C527" s="26"/>
+      <c r="D527" s="26"/>
+      <c r="E527" s="26"/>
+      <c r="F527" s="26"/>
+      <c r="G527" s="26"/>
+      <c r="H527" s="26"/>
+      <c r="I527" s="26"/>
+      <c r="J527" s="26"/>
+      <c r="K527" s="26"/>
+      <c r="L527" s="26"/>
+      <c r="M527" s="26"/>
     </row>
     <row r="528" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A528" s="34"/>
-      <c r="B528" s="34"/>
-      <c r="C528" s="34"/>
-      <c r="D528" s="34"/>
-      <c r="E528" s="34"/>
-      <c r="F528" s="34"/>
-      <c r="G528" s="34"/>
-      <c r="H528" s="34"/>
-      <c r="I528" s="34"/>
-      <c r="J528" s="34"/>
-      <c r="K528" s="34"/>
-      <c r="L528" s="34"/>
-      <c r="M528" s="34"/>
+      <c r="A528" s="26"/>
+      <c r="B528" s="26"/>
+      <c r="C528" s="26"/>
+      <c r="D528" s="26"/>
+      <c r="E528" s="26"/>
+      <c r="F528" s="26"/>
+      <c r="G528" s="26"/>
+      <c r="H528" s="26"/>
+      <c r="I528" s="26"/>
+      <c r="J528" s="26"/>
+      <c r="K528" s="26"/>
+      <c r="L528" s="26"/>
+      <c r="M528" s="26"/>
     </row>
     <row r="529" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A529" s="34"/>
-      <c r="B529" s="34"/>
-      <c r="C529" s="34"/>
-      <c r="D529" s="34"/>
-      <c r="E529" s="34"/>
-      <c r="F529" s="34"/>
-      <c r="G529" s="34"/>
-      <c r="H529" s="34"/>
-      <c r="I529" s="34"/>
-      <c r="J529" s="34"/>
-      <c r="K529" s="34"/>
-      <c r="L529" s="34"/>
-      <c r="M529" s="34"/>
+      <c r="A529" s="26"/>
+      <c r="B529" s="26"/>
+      <c r="C529" s="26"/>
+      <c r="D529" s="26"/>
+      <c r="E529" s="26"/>
+      <c r="F529" s="26"/>
+      <c r="G529" s="26"/>
+      <c r="H529" s="26"/>
+      <c r="I529" s="26"/>
+      <c r="J529" s="26"/>
+      <c r="K529" s="26"/>
+      <c r="L529" s="26"/>
+      <c r="M529" s="26"/>
     </row>
     <row r="530" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A530" s="34"/>
-      <c r="B530" s="34"/>
-      <c r="C530" s="34"/>
-      <c r="D530" s="34"/>
-      <c r="E530" s="34"/>
-      <c r="F530" s="34"/>
-      <c r="G530" s="34"/>
-      <c r="H530" s="34"/>
-      <c r="I530" s="34"/>
-      <c r="J530" s="34"/>
-      <c r="K530" s="34"/>
-      <c r="L530" s="34"/>
-      <c r="M530" s="34"/>
+      <c r="A530" s="26"/>
+      <c r="B530" s="26"/>
+      <c r="C530" s="26"/>
+      <c r="D530" s="26"/>
+      <c r="E530" s="26"/>
+      <c r="F530" s="26"/>
+      <c r="G530" s="26"/>
+      <c r="H530" s="26"/>
+      <c r="I530" s="26"/>
+      <c r="J530" s="26"/>
+      <c r="K530" s="26"/>
+      <c r="L530" s="26"/>
+      <c r="M530" s="26"/>
     </row>
     <row r="531" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A531" s="34"/>
-      <c r="B531" s="34"/>
-      <c r="C531" s="34"/>
-      <c r="D531" s="34"/>
-      <c r="E531" s="34"/>
-      <c r="F531" s="34"/>
-      <c r="G531" s="34"/>
-      <c r="H531" s="34"/>
-      <c r="I531" s="34"/>
-      <c r="J531" s="34"/>
-      <c r="K531" s="34"/>
-      <c r="L531" s="34"/>
-      <c r="M531" s="34"/>
+      <c r="A531" s="26"/>
+      <c r="B531" s="26"/>
+      <c r="C531" s="26"/>
+      <c r="D531" s="26"/>
+      <c r="E531" s="26"/>
+      <c r="F531" s="26"/>
+      <c r="G531" s="26"/>
+      <c r="H531" s="26"/>
+      <c r="I531" s="26"/>
+      <c r="J531" s="26"/>
+      <c r="K531" s="26"/>
+      <c r="L531" s="26"/>
+      <c r="M531" s="26"/>
     </row>
     <row r="532" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A532" s="34"/>
-      <c r="B532" s="34"/>
-      <c r="C532" s="34"/>
-      <c r="D532" s="34"/>
-      <c r="E532" s="34"/>
-      <c r="F532" s="34"/>
-      <c r="G532" s="34"/>
-      <c r="H532" s="34"/>
-      <c r="I532" s="34"/>
-      <c r="J532" s="34"/>
-      <c r="K532" s="34"/>
-      <c r="L532" s="34"/>
-      <c r="M532" s="34"/>
+      <c r="A532" s="26"/>
+      <c r="B532" s="26"/>
+      <c r="C532" s="26"/>
+      <c r="D532" s="26"/>
+      <c r="E532" s="26"/>
+      <c r="F532" s="26"/>
+      <c r="G532" s="26"/>
+      <c r="H532" s="26"/>
+      <c r="I532" s="26"/>
+      <c r="J532" s="26"/>
+      <c r="K532" s="26"/>
+      <c r="L532" s="26"/>
+      <c r="M532" s="26"/>
     </row>
     <row r="533" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A533" s="34"/>
-      <c r="B533" s="34"/>
-      <c r="C533" s="34"/>
-      <c r="D533" s="34"/>
-      <c r="E533" s="34"/>
-      <c r="F533" s="34"/>
-      <c r="G533" s="34"/>
-      <c r="H533" s="34"/>
-      <c r="I533" s="34"/>
-      <c r="J533" s="34"/>
-      <c r="K533" s="34"/>
-      <c r="L533" s="34"/>
-      <c r="M533" s="34"/>
+      <c r="A533" s="26"/>
+      <c r="B533" s="26"/>
+      <c r="C533" s="26"/>
+      <c r="D533" s="26"/>
+      <c r="E533" s="26"/>
+      <c r="F533" s="26"/>
+      <c r="G533" s="26"/>
+      <c r="H533" s="26"/>
+      <c r="I533" s="26"/>
+      <c r="J533" s="26"/>
+      <c r="K533" s="26"/>
+      <c r="L533" s="26"/>
+      <c r="M533" s="26"/>
     </row>
     <row r="534" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A534" s="34"/>
-      <c r="B534" s="34"/>
-      <c r="C534" s="34"/>
-      <c r="D534" s="34"/>
-      <c r="E534" s="34"/>
-      <c r="F534" s="34"/>
-      <c r="G534" s="34"/>
-      <c r="H534" s="34"/>
-      <c r="I534" s="34"/>
-      <c r="J534" s="34"/>
-      <c r="K534" s="34"/>
-      <c r="L534" s="34"/>
-      <c r="M534" s="34"/>
+      <c r="A534" s="26"/>
+      <c r="B534" s="26"/>
+      <c r="C534" s="26"/>
+      <c r="D534" s="26"/>
+      <c r="E534" s="26"/>
+      <c r="F534" s="26"/>
+      <c r="G534" s="26"/>
+      <c r="H534" s="26"/>
+      <c r="I534" s="26"/>
+      <c r="J534" s="26"/>
+      <c r="K534" s="26"/>
+      <c r="L534" s="26"/>
+      <c r="M534" s="26"/>
     </row>
     <row r="535" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A535" s="34"/>
-      <c r="B535" s="34"/>
-      <c r="C535" s="34"/>
-      <c r="D535" s="34"/>
-      <c r="E535" s="34"/>
-      <c r="F535" s="34"/>
-      <c r="G535" s="34"/>
-      <c r="H535" s="34"/>
-      <c r="I535" s="34"/>
-      <c r="J535" s="34"/>
-      <c r="K535" s="34"/>
-      <c r="L535" s="34"/>
-      <c r="M535" s="34"/>
+      <c r="A535" s="26"/>
+      <c r="B535" s="26"/>
+      <c r="C535" s="26"/>
+      <c r="D535" s="26"/>
+      <c r="E535" s="26"/>
+      <c r="F535" s="26"/>
+      <c r="G535" s="26"/>
+      <c r="H535" s="26"/>
+      <c r="I535" s="26"/>
+      <c r="J535" s="26"/>
+      <c r="K535" s="26"/>
+      <c r="L535" s="26"/>
+      <c r="M535" s="26"/>
     </row>
     <row r="536" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A536" s="34"/>
-      <c r="B536" s="34"/>
-      <c r="C536" s="34"/>
-      <c r="D536" s="34"/>
-      <c r="E536" s="34"/>
-      <c r="F536" s="34"/>
-      <c r="G536" s="34"/>
-      <c r="H536" s="34"/>
-      <c r="I536" s="34"/>
-      <c r="J536" s="34"/>
-      <c r="K536" s="34"/>
-      <c r="L536" s="34"/>
-      <c r="M536" s="34"/>
+      <c r="A536" s="26"/>
+      <c r="B536" s="26"/>
+      <c r="C536" s="26"/>
+      <c r="D536" s="26"/>
+      <c r="E536" s="26"/>
+      <c r="F536" s="26"/>
+      <c r="G536" s="26"/>
+      <c r="H536" s="26"/>
+      <c r="I536" s="26"/>
+      <c r="J536" s="26"/>
+      <c r="K536" s="26"/>
+      <c r="L536" s="26"/>
+      <c r="M536" s="26"/>
     </row>
     <row r="537" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A537" s="34"/>
-      <c r="B537" s="34"/>
-      <c r="C537" s="34"/>
-      <c r="D537" s="34"/>
-      <c r="E537" s="34"/>
-      <c r="F537" s="34"/>
-      <c r="G537" s="34"/>
-      <c r="H537" s="34"/>
-      <c r="I537" s="34"/>
-      <c r="J537" s="34"/>
-      <c r="K537" s="34"/>
-      <c r="L537" s="34"/>
-      <c r="M537" s="34"/>
+      <c r="A537" s="26"/>
+      <c r="B537" s="26"/>
+      <c r="C537" s="26"/>
+      <c r="D537" s="26"/>
+      <c r="E537" s="26"/>
+      <c r="F537" s="26"/>
+      <c r="G537" s="26"/>
+      <c r="H537" s="26"/>
+      <c r="I537" s="26"/>
+      <c r="J537" s="26"/>
+      <c r="K537" s="26"/>
+      <c r="L537" s="26"/>
+      <c r="M537" s="26"/>
     </row>
     <row r="538" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A538" s="34"/>
-      <c r="B538" s="34"/>
-      <c r="C538" s="34"/>
-      <c r="D538" s="34"/>
-      <c r="E538" s="34"/>
-      <c r="F538" s="34"/>
-      <c r="G538" s="34"/>
-      <c r="H538" s="34"/>
-      <c r="I538" s="34"/>
-      <c r="J538" s="34"/>
-      <c r="K538" s="34"/>
-      <c r="L538" s="34"/>
-      <c r="M538" s="34"/>
+      <c r="A538" s="26"/>
+      <c r="B538" s="26"/>
+      <c r="C538" s="26"/>
+      <c r="D538" s="26"/>
+      <c r="E538" s="26"/>
+      <c r="F538" s="26"/>
+      <c r="G538" s="26"/>
+      <c r="H538" s="26"/>
+      <c r="I538" s="26"/>
+      <c r="J538" s="26"/>
+      <c r="K538" s="26"/>
+      <c r="L538" s="26"/>
+      <c r="M538" s="26"/>
     </row>
     <row r="539" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A539" s="34"/>
-      <c r="B539" s="34"/>
-      <c r="C539" s="34"/>
-      <c r="D539" s="34"/>
-      <c r="E539" s="34"/>
-      <c r="F539" s="34"/>
-      <c r="G539" s="34"/>
-      <c r="H539" s="34"/>
-      <c r="I539" s="34"/>
-      <c r="J539" s="34"/>
-      <c r="K539" s="34"/>
-      <c r="L539" s="34"/>
-      <c r="M539" s="34"/>
+      <c r="A539" s="26"/>
+      <c r="B539" s="26"/>
+      <c r="C539" s="26"/>
+      <c r="D539" s="26"/>
+      <c r="E539" s="26"/>
+      <c r="F539" s="26"/>
+      <c r="G539" s="26"/>
+      <c r="H539" s="26"/>
+      <c r="I539" s="26"/>
+      <c r="J539" s="26"/>
+      <c r="K539" s="26"/>
+      <c r="L539" s="26"/>
+      <c r="M539" s="26"/>
     </row>
     <row r="540" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A540" s="34"/>
-      <c r="B540" s="34"/>
-      <c r="C540" s="34"/>
-      <c r="D540" s="34"/>
-      <c r="E540" s="34"/>
-      <c r="F540" s="34"/>
-      <c r="G540" s="34"/>
-      <c r="H540" s="34"/>
-      <c r="I540" s="34"/>
-      <c r="J540" s="34"/>
-      <c r="K540" s="34"/>
-      <c r="L540" s="34"/>
-      <c r="M540" s="34"/>
+      <c r="A540" s="26"/>
+      <c r="B540" s="26"/>
+      <c r="C540" s="26"/>
+      <c r="D540" s="26"/>
+      <c r="E540" s="26"/>
+      <c r="F540" s="26"/>
+      <c r="G540" s="26"/>
+      <c r="H540" s="26"/>
+      <c r="I540" s="26"/>
+      <c r="J540" s="26"/>
+      <c r="K540" s="26"/>
+      <c r="L540" s="26"/>
+      <c r="M540" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9324,14 +9430,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB570861-E359-448E-A564-A105FB0EBEC5}">
   <dimension ref="A2:B37"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="25" t="s">
         <v>106</v>
       </c>
     </row>
@@ -9380,7 +9486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A13133F-4149-445F-B79A-3A13D28522C7}">
   <dimension ref="A2:P175"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
+    <sheetView topLeftCell="A148" workbookViewId="0">
       <selection activeCell="I181" sqref="I181"/>
     </sheetView>
   </sheetViews>
@@ -9431,7 +9537,7 @@
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="P62" s="33" t="s">
+      <c r="P62" s="25" t="s">
         <v>123</v>
       </c>
     </row>
@@ -9461,7 +9567,7 @@
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K107" s="36"/>
+      <c r="K107" s="28"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
@@ -9474,195 +9580,195 @@
       </c>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B134" s="37" t="s">
+      <c r="B134" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="C134" s="37"/>
-      <c r="D134" s="37"/>
-      <c r="E134" s="37"/>
-      <c r="F134" s="37"/>
-      <c r="G134" s="37"/>
-      <c r="H134" s="37"/>
-      <c r="I134" s="37"/>
-      <c r="J134" s="37"/>
+      <c r="C134" s="29"/>
+      <c r="D134" s="29"/>
+      <c r="E134" s="29"/>
+      <c r="F134" s="29"/>
+      <c r="G134" s="29"/>
+      <c r="H134" s="29"/>
+      <c r="I134" s="29"/>
+      <c r="J134" s="29"/>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B135" s="37" t="s">
+      <c r="B135" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="C135" s="37"/>
-      <c r="D135" s="37"/>
-      <c r="E135" s="37"/>
-      <c r="F135" s="37"/>
-      <c r="G135" s="37"/>
-      <c r="H135" s="37"/>
-      <c r="I135" s="37"/>
-      <c r="J135" s="37"/>
+      <c r="C135" s="29"/>
+      <c r="D135" s="29"/>
+      <c r="E135" s="29"/>
+      <c r="F135" s="29"/>
+      <c r="G135" s="29"/>
+      <c r="H135" s="29"/>
+      <c r="I135" s="29"/>
+      <c r="J135" s="29"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B136" s="38" t="s">
+      <c r="B136" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="C136" s="39"/>
-      <c r="D136" s="39"/>
-      <c r="E136" s="39"/>
-      <c r="F136" s="39"/>
-      <c r="G136" s="39"/>
-      <c r="H136" s="39"/>
-      <c r="I136" s="39"/>
-      <c r="J136" s="40"/>
+      <c r="C136" s="31"/>
+      <c r="D136" s="31"/>
+      <c r="E136" s="31"/>
+      <c r="F136" s="31"/>
+      <c r="G136" s="31"/>
+      <c r="H136" s="31"/>
+      <c r="I136" s="31"/>
+      <c r="J136" s="32"/>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B137" s="41"/>
-      <c r="C137" s="37"/>
-      <c r="D137" s="37"/>
-      <c r="E137" s="37"/>
-      <c r="F137" s="37"/>
-      <c r="G137" s="37"/>
-      <c r="H137" s="37"/>
-      <c r="I137" s="37"/>
-      <c r="J137" s="42"/>
+      <c r="B137" s="33"/>
+      <c r="C137" s="29"/>
+      <c r="D137" s="29"/>
+      <c r="E137" s="29"/>
+      <c r="F137" s="29"/>
+      <c r="G137" s="29"/>
+      <c r="H137" s="29"/>
+      <c r="I137" s="29"/>
+      <c r="J137" s="34"/>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B138" s="41" t="s">
+      <c r="B138" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="C138" s="37"/>
-      <c r="D138" s="37"/>
-      <c r="E138" s="37"/>
-      <c r="F138" s="37"/>
-      <c r="G138" s="37"/>
-      <c r="H138" s="37"/>
-      <c r="I138" s="37"/>
-      <c r="J138" s="42"/>
+      <c r="C138" s="29"/>
+      <c r="D138" s="29"/>
+      <c r="E138" s="29"/>
+      <c r="F138" s="29"/>
+      <c r="G138" s="29"/>
+      <c r="H138" s="29"/>
+      <c r="I138" s="29"/>
+      <c r="J138" s="34"/>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B139" s="41" t="s">
+      <c r="B139" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="C139" s="37"/>
-      <c r="D139" s="37"/>
-      <c r="E139" s="37"/>
-      <c r="F139" s="37"/>
-      <c r="G139" s="37"/>
-      <c r="H139" s="37"/>
-      <c r="I139" s="37"/>
-      <c r="J139" s="42"/>
+      <c r="C139" s="29"/>
+      <c r="D139" s="29"/>
+      <c r="E139" s="29"/>
+      <c r="F139" s="29"/>
+      <c r="G139" s="29"/>
+      <c r="H139" s="29"/>
+      <c r="I139" s="29"/>
+      <c r="J139" s="34"/>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B140" s="41" t="s">
+      <c r="B140" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="C140" s="37"/>
-      <c r="D140" s="37"/>
-      <c r="E140" s="37"/>
-      <c r="F140" s="37"/>
-      <c r="G140" s="37"/>
-      <c r="H140" s="37"/>
-      <c r="I140" s="37"/>
-      <c r="J140" s="42"/>
+      <c r="C140" s="29"/>
+      <c r="D140" s="29"/>
+      <c r="E140" s="29"/>
+      <c r="F140" s="29"/>
+      <c r="G140" s="29"/>
+      <c r="H140" s="29"/>
+      <c r="I140" s="29"/>
+      <c r="J140" s="34"/>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B141" s="41" t="s">
+      <c r="B141" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="C141" s="37"/>
-      <c r="D141" s="37"/>
-      <c r="E141" s="37"/>
-      <c r="F141" s="37"/>
-      <c r="G141" s="37"/>
-      <c r="H141" s="37"/>
-      <c r="I141" s="37"/>
-      <c r="J141" s="42"/>
+      <c r="C141" s="29"/>
+      <c r="D141" s="29"/>
+      <c r="E141" s="29"/>
+      <c r="F141" s="29"/>
+      <c r="G141" s="29"/>
+      <c r="H141" s="29"/>
+      <c r="I141" s="29"/>
+      <c r="J141" s="34"/>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B142" s="41"/>
-      <c r="C142" s="37"/>
-      <c r="D142" s="37"/>
-      <c r="E142" s="37"/>
-      <c r="F142" s="37"/>
-      <c r="G142" s="37"/>
-      <c r="H142" s="37"/>
-      <c r="I142" s="37"/>
-      <c r="J142" s="42"/>
+      <c r="B142" s="33"/>
+      <c r="C142" s="29"/>
+      <c r="D142" s="29"/>
+      <c r="E142" s="29"/>
+      <c r="F142" s="29"/>
+      <c r="G142" s="29"/>
+      <c r="H142" s="29"/>
+      <c r="I142" s="29"/>
+      <c r="J142" s="34"/>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B143" s="41" t="s">
+      <c r="B143" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="C143" s="37"/>
-      <c r="D143" s="37"/>
-      <c r="E143" s="37"/>
-      <c r="F143" s="37"/>
-      <c r="G143" s="37"/>
-      <c r="H143" s="37"/>
-      <c r="I143" s="37"/>
-      <c r="J143" s="42"/>
+      <c r="C143" s="29"/>
+      <c r="D143" s="29"/>
+      <c r="E143" s="29"/>
+      <c r="F143" s="29"/>
+      <c r="G143" s="29"/>
+      <c r="H143" s="29"/>
+      <c r="I143" s="29"/>
+      <c r="J143" s="34"/>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B144" s="41" t="s">
+      <c r="B144" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="C144" s="37"/>
-      <c r="D144" s="37"/>
-      <c r="E144" s="37"/>
-      <c r="F144" s="37"/>
-      <c r="G144" s="37"/>
-      <c r="H144" s="37"/>
-      <c r="I144" s="37"/>
-      <c r="J144" s="42"/>
+      <c r="C144" s="29"/>
+      <c r="D144" s="29"/>
+      <c r="E144" s="29"/>
+      <c r="F144" s="29"/>
+      <c r="G144" s="29"/>
+      <c r="H144" s="29"/>
+      <c r="I144" s="29"/>
+      <c r="J144" s="34"/>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B145" s="41"/>
-      <c r="C145" s="37"/>
-      <c r="D145" s="37"/>
-      <c r="E145" s="37"/>
-      <c r="F145" s="37"/>
-      <c r="G145" s="37"/>
-      <c r="H145" s="37"/>
-      <c r="I145" s="37"/>
-      <c r="J145" s="42"/>
+      <c r="B145" s="33"/>
+      <c r="C145" s="29"/>
+      <c r="D145" s="29"/>
+      <c r="E145" s="29"/>
+      <c r="F145" s="29"/>
+      <c r="G145" s="29"/>
+      <c r="H145" s="29"/>
+      <c r="I145" s="29"/>
+      <c r="J145" s="34"/>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B146" s="43" t="s">
+      <c r="B146" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="C146" s="44"/>
-      <c r="D146" s="44"/>
-      <c r="E146" s="44"/>
-      <c r="F146" s="44"/>
-      <c r="G146" s="44"/>
-      <c r="H146" s="44"/>
-      <c r="I146" s="44"/>
-      <c r="J146" s="45"/>
+      <c r="C146" s="36"/>
+      <c r="D146" s="36"/>
+      <c r="E146" s="36"/>
+      <c r="F146" s="36"/>
+      <c r="G146" s="36"/>
+      <c r="H146" s="36"/>
+      <c r="I146" s="36"/>
+      <c r="J146" s="37"/>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B163" s="37" t="s">
+      <c r="B163" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="C163" s="37"/>
-      <c r="D163" s="37"/>
+      <c r="C163" s="29"/>
+      <c r="D163" s="29"/>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B164" s="38" t="s">
+      <c r="B164" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="C164" s="39"/>
-      <c r="D164" s="40"/>
+      <c r="C164" s="31"/>
+      <c r="D164" s="32"/>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B165" s="41" t="s">
+      <c r="B165" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="C165" s="37"/>
-      <c r="D165" s="42"/>
+      <c r="C165" s="29"/>
+      <c r="D165" s="34"/>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B166" s="43" t="s">
+      <c r="B166" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="C166" s="44"/>
-      <c r="D166" s="45"/>
+      <c r="C166" s="36"/>
+      <c r="D166" s="37"/>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
@@ -9679,7 +9785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFF3464-D9E1-45D9-9CCF-2D74CD86B322}">
   <dimension ref="A2:I65"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -9696,228 +9802,228 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34" t="s">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="34"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="34"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -9958,389 +10064,682 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50DEAE15-7447-434F-BD02-77C892E41975}">
-  <dimension ref="A2:H482"/>
+  <dimension ref="A2:H509"/>
   <sheetViews>
-    <sheetView topLeftCell="A475" workbookViewId="0">
-      <selection activeCell="B483" sqref="B483"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="60"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="53"/>
+      <c r="E11" s="54"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="61"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="62" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D16" s="63">
+        <v>3306</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="64" t="s">
+        <v>239</v>
+      </c>
+      <c r="C17" s="64" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17" s="65">
+        <v>22</v>
+      </c>
+      <c r="E17" s="64" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" s="63">
+        <v>4949</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D19" s="63">
+        <v>5666</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="66" t="s">
+        <v>241</v>
+      </c>
+      <c r="C20" s="66" t="s">
+        <v>242</v>
+      </c>
+      <c r="D20" s="66" t="s">
+        <v>243</v>
+      </c>
+      <c r="E20" s="66" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="67" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" s="67" t="s">
+        <v>237</v>
+      </c>
+      <c r="D21" s="67">
+        <v>3306</v>
+      </c>
+      <c r="E21" s="67" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="62"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="61"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="C73" s="40"/>
+      <c r="D73" s="41"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="C74" s="43"/>
+      <c r="D74" s="21"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="C75" s="45"/>
+      <c r="D75" s="46"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B142" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="C142" s="48"/>
+      <c r="D142" s="49"/>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B143" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C143" s="43"/>
+      <c r="D143" s="43"/>
+      <c r="E143" s="43"/>
+      <c r="F143" s="43"/>
+      <c r="G143" s="43"/>
+      <c r="H143" s="43"/>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B144" s="43" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="47" t="s">
+      <c r="C144" s="43"/>
+      <c r="D144" s="43"/>
+      <c r="E144" s="43"/>
+      <c r="F144" s="43"/>
+      <c r="G144" s="43"/>
+      <c r="H144" s="43"/>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B145" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="C145" s="43"/>
+      <c r="D145" s="43"/>
+      <c r="E145" s="43"/>
+      <c r="F145" s="43"/>
+      <c r="G145" s="43"/>
+      <c r="H145" s="43"/>
+    </row>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B146" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="C146" s="43"/>
+      <c r="D146" s="43"/>
+      <c r="E146" s="43"/>
+      <c r="F146" s="43"/>
+      <c r="G146" s="43"/>
+      <c r="H146" s="43"/>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B147" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="C147" s="43"/>
+      <c r="D147" s="43"/>
+      <c r="E147" s="43"/>
+      <c r="F147" s="43"/>
+      <c r="G147" s="43"/>
+      <c r="H147" s="43"/>
+    </row>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B148" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C148" s="43"/>
+      <c r="D148" s="43"/>
+      <c r="E148" s="43"/>
+      <c r="F148" s="43"/>
+      <c r="G148" s="43"/>
+      <c r="H148" s="43"/>
+    </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B149" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C149" s="43"/>
+      <c r="D149" s="43"/>
+      <c r="E149" s="43"/>
+      <c r="F149" s="43"/>
+      <c r="G149" s="43"/>
+      <c r="H149" s="43"/>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B245" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="B265" s="38"/>
+      <c r="C265" s="38"/>
+      <c r="D265" s="38"/>
+      <c r="E265" s="38"/>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B266" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="274" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B274" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="275" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B275" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="C275" s="40"/>
+      <c r="D275" s="41"/>
+    </row>
+    <row r="276" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B276" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="C46" s="48"/>
-      <c r="D46" s="49"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="23"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="C48" s="53"/>
-      <c r="D48" s="54"/>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+      <c r="C276" s="43"/>
+      <c r="D276" s="21"/>
+    </row>
+    <row r="277" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B277" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="C277" s="45"/>
+      <c r="D277" s="46"/>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B292" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
+    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B314" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A344" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="B344" s="38"/>
+      <c r="C344" s="38"/>
+      <c r="D344" s="38"/>
+      <c r="E344" s="38"/>
+      <c r="F344" s="38"/>
+      <c r="G344" s="38"/>
+      <c r="H344" s="38"/>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B346" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C346" s="40"/>
+      <c r="D346" s="40"/>
+      <c r="E346" s="41"/>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B347" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="C347" s="43"/>
+      <c r="D347" s="43"/>
+      <c r="E347" s="21"/>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B348" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="C348" s="43"/>
+      <c r="D348" s="43"/>
+      <c r="E348" s="21"/>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B349" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="C349" s="43"/>
+      <c r="D349" s="43"/>
+      <c r="E349" s="21"/>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B350" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="C350" s="43"/>
+      <c r="D350" s="43"/>
+      <c r="E350" s="21"/>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B351" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="C351" s="43"/>
+      <c r="D351" s="43"/>
+      <c r="E351" s="21"/>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B352" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="C352" s="43"/>
+      <c r="D352" s="43"/>
+      <c r="E352" s="21"/>
+    </row>
+    <row r="353" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B353" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="C353" s="45"/>
+      <c r="D353" s="45"/>
+      <c r="E353" s="46"/>
+    </row>
+    <row r="355" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B355" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="375" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B375" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="381" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B381" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="C381" s="40"/>
+      <c r="D381" s="40"/>
+      <c r="E381" s="41"/>
+    </row>
+    <row r="382" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B382" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="C382" s="43"/>
+      <c r="D382" s="43"/>
+      <c r="E382" s="21"/>
+    </row>
+    <row r="383" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B383" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="C383" s="43"/>
+      <c r="D383" s="43"/>
+      <c r="E383" s="21"/>
+    </row>
+    <row r="384" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B384" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="C384" s="43"/>
+      <c r="D384" s="43"/>
+      <c r="E384" s="21"/>
+    </row>
+    <row r="385" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B385" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="C385" s="43"/>
+      <c r="D385" s="43"/>
+      <c r="E385" s="21"/>
+    </row>
+    <row r="386" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B386" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="C386" s="45"/>
+      <c r="D386" s="45"/>
+      <c r="E386" s="46"/>
+    </row>
+    <row r="400" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B400" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="401" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B401" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="425" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B425" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="435" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B435" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="508" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B508" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="509" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B509" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="C115" s="56"/>
-      <c r="D115" s="57"/>
-    </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="C116" s="51"/>
-      <c r="D116" s="51"/>
-      <c r="E116" s="51"/>
-      <c r="F116" s="51"/>
-      <c r="G116" s="51"/>
-      <c r="H116" s="51"/>
-    </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="51" t="s">
-        <v>189</v>
-      </c>
-      <c r="C117" s="51"/>
-      <c r="D117" s="51"/>
-      <c r="E117" s="51"/>
-      <c r="F117" s="51"/>
-      <c r="G117" s="51"/>
-      <c r="H117" s="51"/>
-    </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="C118" s="51"/>
-      <c r="D118" s="51"/>
-      <c r="E118" s="51"/>
-      <c r="F118" s="51"/>
-      <c r="G118" s="51"/>
-      <c r="H118" s="51"/>
-    </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="C119" s="51"/>
-      <c r="D119" s="51"/>
-      <c r="E119" s="51"/>
-      <c r="F119" s="51"/>
-      <c r="G119" s="51"/>
-      <c r="H119" s="51"/>
-    </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B120" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="C120" s="51"/>
-      <c r="D120" s="51"/>
-      <c r="E120" s="51"/>
-      <c r="F120" s="51"/>
-      <c r="G120" s="51"/>
-      <c r="H120" s="51"/>
-    </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="51" t="s">
-        <v>161</v>
-      </c>
-      <c r="C121" s="51"/>
-      <c r="D121" s="51"/>
-      <c r="E121" s="51"/>
-      <c r="F121" s="51"/>
-      <c r="G121" s="51"/>
-      <c r="H121" s="51"/>
-    </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B122" s="51" t="s">
-        <v>162</v>
-      </c>
-      <c r="C122" s="51"/>
-      <c r="D122" s="51"/>
-      <c r="E122" s="51"/>
-      <c r="F122" s="51"/>
-      <c r="G122" s="51"/>
-      <c r="H122" s="51"/>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B150" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B168" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B218" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="B238" s="46"/>
-      <c r="C238" s="46"/>
-      <c r="D238" s="46"/>
-      <c r="E238" s="46"/>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B239" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B247" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B248" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="C248" s="48"/>
-      <c r="D248" s="49"/>
-    </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B249" s="50" t="s">
-        <v>171</v>
-      </c>
-      <c r="C249" s="51"/>
-      <c r="D249" s="23"/>
-    </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B250" s="52" t="s">
-        <v>186</v>
-      </c>
-      <c r="C250" s="53"/>
-      <c r="D250" s="54"/>
-    </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B265" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B287" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A317" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="B317" s="46"/>
-      <c r="C317" s="46"/>
-      <c r="D317" s="46"/>
-      <c r="E317" s="46"/>
-      <c r="F317" s="46"/>
-      <c r="G317" s="46"/>
-      <c r="H317" s="46"/>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B319" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="C319" s="48"/>
-      <c r="D319" s="48"/>
-      <c r="E319" s="49"/>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B320" s="50" t="s">
-        <v>173</v>
-      </c>
-      <c r="C320" s="51"/>
-      <c r="D320" s="51"/>
-      <c r="E320" s="23"/>
-    </row>
-    <row r="321" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B321" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="C321" s="51"/>
-      <c r="D321" s="51"/>
-      <c r="E321" s="23"/>
-    </row>
-    <row r="322" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B322" s="50" t="s">
-        <v>175</v>
-      </c>
-      <c r="C322" s="51"/>
-      <c r="D322" s="51"/>
-      <c r="E322" s="23"/>
-    </row>
-    <row r="323" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B323" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="C323" s="51"/>
-      <c r="D323" s="51"/>
-      <c r="E323" s="23"/>
-    </row>
-    <row r="324" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B324" s="50" t="s">
-        <v>177</v>
-      </c>
-      <c r="C324" s="51"/>
-      <c r="D324" s="51"/>
-      <c r="E324" s="23"/>
-    </row>
-    <row r="325" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B325" s="50" t="s">
-        <v>191</v>
-      </c>
-      <c r="C325" s="51"/>
-      <c r="D325" s="51"/>
-      <c r="E325" s="23"/>
-    </row>
-    <row r="326" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B326" s="52" t="s">
-        <v>192</v>
-      </c>
-      <c r="C326" s="53"/>
-      <c r="D326" s="53"/>
-      <c r="E326" s="54"/>
-    </row>
-    <row r="328" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B328" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B348" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="354" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B354" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="C354" s="48"/>
-      <c r="D354" s="48"/>
-      <c r="E354" s="49"/>
-    </row>
-    <row r="355" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B355" s="50" t="s">
-        <v>175</v>
-      </c>
-      <c r="C355" s="51"/>
-      <c r="D355" s="51"/>
-      <c r="E355" s="23"/>
-    </row>
-    <row r="356" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B356" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="C356" s="51"/>
-      <c r="D356" s="51"/>
-      <c r="E356" s="23"/>
-    </row>
-    <row r="357" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B357" s="50" t="s">
-        <v>177</v>
-      </c>
-      <c r="C357" s="51"/>
-      <c r="D357" s="51"/>
-      <c r="E357" s="23"/>
-    </row>
-    <row r="358" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B358" s="50" t="s">
-        <v>191</v>
-      </c>
-      <c r="C358" s="51"/>
-      <c r="D358" s="51"/>
-      <c r="E358" s="23"/>
-    </row>
-    <row r="359" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B359" s="52" t="s">
-        <v>192</v>
-      </c>
-      <c r="C359" s="53"/>
-      <c r="D359" s="53"/>
-      <c r="E359" s="54"/>
-    </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B373" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B374" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B398" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="408" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B408" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="481" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B481" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="482" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B482" t="s">
-        <v>157</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C11:E11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -10351,21 +10750,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97476A72-BED4-4815-8398-D18BEC53A20F}">
   <dimension ref="A2:B45"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
-        <v>183</v>
-      </c>
-      <c r="B2" s="58"/>
+      <c r="A2" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="50"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
@@ -10374,14 +10773,14 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="58" t="s">
-        <v>193</v>
-      </c>
-      <c r="B44" s="58"/>
+      <c r="A44" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="B44" s="50"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -10394,215 +10793,215 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD445BF-F31C-4528-BF5D-7919F8DAB78F}">
   <dimension ref="A2:B488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A547" workbookViewId="0">
+    <sheetView topLeftCell="A544" workbookViewId="0">
       <selection activeCell="B519" sqref="B519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="25" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B154" s="59" t="s">
-        <v>208</v>
+      <c r="B154" s="51" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B169" s="59" t="s">
-        <v>212</v>
+      <c r="B169" s="51" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B179" s="51" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B211" s="51" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B179" s="59" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B211" s="59" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B232" s="59" t="s">
-        <v>219</v>
+      <c r="B232" s="51" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="304" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B304" s="59" t="s">
-        <v>224</v>
+      <c r="B304" s="51" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="305" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="333" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B333" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="348" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B348" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="362" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B362" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="377" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B377" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="392" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B392" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="407" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B407" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
